--- a/work/speed_list.xlsx
+++ b/work/speed_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N4'!$A$1:$F$234</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>level</t>
   </si>
@@ -57,78 +57,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>はじめまして。私はアンナです</t>
-    <rPh sb="7" eb="8">
-      <t>ワタシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xin chào.Tôi là Anna.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>はじめまして。さくらです</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xin chào. Tôi là Sakura.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>よろしくお願いします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Rất hân hạnh được làm quen.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>こちらこそ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tôi cũng rất hân hạnh được gặp chị</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>さくらさん。はい、どうぞ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chị Sakura này, xin tặng chị.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これは何ですか</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Đây là cái gì thế?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>それはタイのお土産です</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Đấy là món quà lưu niệm của Thái Lan.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ありがとうございます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xin cảm ơn chị.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>どういたしまして</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Không có gì ạ.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -147,21 +76,871 @@
     <t>,speechN4,lesson1,</t>
   </si>
   <si>
+    <t>はじめまして。私はクオンです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôi tên là Cường.  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベトナムから来ました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôi từ Việt Nam đến.  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よろしくお願いします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">おはようございます </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xin chào (buổi sáng)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">こんにちは </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xin chào (buổi trưa, buổi chiều)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんばんは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xin chào (chiều muộn và tối) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さようなら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm biệt </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クオンさん。これがあなたの名刺です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Anh Cường ơi,  Đây là danh thiếp của anh.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ありがとうございます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xin cảm ơn chị.  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>それは何ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Đấy là cái gì ạ? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>これは社員証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しゃいんしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Đây là thẻ nhân viên． </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>,speechN4,lesson2,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クオンさん、ちょっと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Anh Cường ơi, tôi gặp anh một chút được không?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日、これから会議があります。出て下さい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôm nay, sắp có một cuộc họp. Anh hãy tham dự nhé! </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はい、わかりました。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vâng, tôi hiểu rồi. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>場所はどこですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa điểm là ở đâu ạ? </t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>,speechN4,lesson3,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いま何時ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bây giờ là mấy giờ ạ? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4 giờ 15 phút. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>よじじゅうごふんです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会議は何時に終わりますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuộc họp kết thúc mấy giờ ạ? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoảng 5 giờ đấy. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson4,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山田さん、一緒に帰りませんか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Yamada ơi, chị có về cùng với tôi không? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ごめんなさい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まだ仕事が終わりません。クオンさんも手伝ってください。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tôi xin lỗi. Công việc của tôi vẫn chưa xong. Anh Cường hãy giúp tôi với.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>えーと、今日は残業できません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Umm… hôm nay tôi không thể làm thêm giờ được.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson5,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５時ごろですよ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>明日の朝、市役所と銀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ってから、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会社に来ます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sáng mai, tôi đi tòa thị chính và ngân hàng, rồi sau đó đến công ty ạ.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうですか。午前中に市役所と銀⾏ですね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vậy à?  Buổi sáng, cậu đi tòa thị chính và ngân hàng hả?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はい。銀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で口座を開きます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vâng. Tôi sẽ mở một tài khoản ở ngân hàng. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson6,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>今日はどのようなご用件ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tôi có thể giúp gì ạ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>口座を開きたいんですが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tôi muốn mở một tài khoản…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こちらにお名前とご住所、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>お電話番号を書いてください。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xin hãy viết tên, địa chỉ, số điện thoại vào đây. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson7,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。財布を落としてしまいました。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Làm thế nào bây giờ... Tôi đánh rơi ví mất rồi.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本当？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thật không? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いつ最後に使いましたか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Anh dùng nó lần cuối khi nào?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いつかな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúc nào nhỉ... </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とにかく警察に届けましょう。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dù sao thì hãy cứ báo cảnh sát đã. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson8,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はい。ＡＢＣ電器です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xin chào! Đây là công ty điện tử ABC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャパン会社の田中と申しますが、山田さんはいらっしゃいますか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôi là Tanaka ở công ty Japan Gaisha. Cô Yamada có ở đấy không ạ?  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya… Yamada phải không ạ? </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やっ山田ですね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>々お待ちください。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xin đợi một lát. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,speechN4,lesson9,</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +952,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -181,7 +960,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -195,7 +974,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -337,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +1148,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,6 +1183,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,31 +1359,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="12" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -616,10 +1399,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -631,15 +1414,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -651,15 +1434,15 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -671,15 +1454,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -691,15 +1474,15 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -708,18 +1491,18 @@
         <v>7</v>
       </c>
       <c r="E6" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -728,18 +1511,18 @@
         <v>7</v>
       </c>
       <c r="E7" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
@@ -748,18 +1531,18 @@
         <v>7</v>
       </c>
       <c r="E8" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -768,18 +1551,18 @@
         <v>7</v>
       </c>
       <c r="E9" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -788,487 +1571,631 @@
         <v>7</v>
       </c>
       <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="9">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
       <c r="D31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5</v>
+      </c>
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
       <c r="D37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5</v>
+      </c>
       <c r="D38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="9">
-        <v>15</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="13"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="9">
-        <v>16</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="13"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9">
-        <v>17</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="13"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="9">
-        <v>18</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="13"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="9">
-        <v>19</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="7"/>
@@ -2799,16 +3726,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="16.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2819,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2834,11 +3763,11 @@
     <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>""""&amp;'N4'!A2&amp;""""</f>
-        <v>"はじめまして。私はアンナです"</v>
+        <v>"はじめまして。私はクオンです。"</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>""""&amp;'N4'!B2&amp;""""</f>
-        <v>"Xin chào.Tôi là Anna."</v>
+        <v>"Tôi tên là Cường.  "</v>
       </c>
       <c r="C2" t="str">
         <f>""""&amp;'N4'!C2&amp;""""</f>
@@ -2860,11 +3789,11 @@
     <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>""""&amp;'N4'!A3&amp;""""</f>
-        <v>"はじめまして。さくらです"</v>
+        <v>"ベトナムから来ました。"</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>""""&amp;'N4'!B3&amp;""""</f>
-        <v>"Xin chào. Tôi là Sakura."</v>
+        <v>"Tôi từ Việt Nam đến.  "</v>
       </c>
       <c r="C3" t="str">
         <f>""""&amp;'N4'!C3&amp;""""</f>
@@ -2912,11 +3841,11 @@
     <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>""""&amp;'N4'!A5&amp;""""</f>
-        <v>"こちらこそ"</v>
+        <v>"おはようございます "</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>""""&amp;'N4'!B5&amp;""""</f>
-        <v>"Tôi cũng rất hân hạnh được gặp chị"</v>
+        <v>"Xin chào (buổi sáng)"</v>
       </c>
       <c r="C5" t="str">
         <f>""""&amp;'N4'!C5&amp;""""</f>
@@ -2938,11 +3867,11 @@
     <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>""""&amp;'N4'!A6&amp;""""</f>
-        <v>"さくらさん。はい、どうぞ。"</v>
+        <v>"こんにちは "</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>""""&amp;'N4'!B6&amp;""""</f>
-        <v>"Chị Sakura này, xin tặng chị."</v>
+        <v>"Xin chào (buổi trưa, buổi chiều)"</v>
       </c>
       <c r="C6" t="str">
         <f>""""&amp;'N4'!C6&amp;""""</f>
@@ -2954,21 +3883,21 @@
       </c>
       <c r="E6" t="str">
         <f>""""&amp;'N4'!E6&amp;""""</f>
-        <v>"1"</v>
+        <v>"5"</v>
       </c>
       <c r="F6" t="str">
         <f>""""&amp;'N4'!F6&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson1,"</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>""""&amp;'N4'!A7&amp;""""</f>
-        <v>"これは何ですか"</v>
+        <v>"こんばんは"</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>""""&amp;'N4'!B7&amp;""""</f>
-        <v>"Đây là cái gì thế?"</v>
+        <v>"Xin chào (chiều muộn và tối) "</v>
       </c>
       <c r="C7" t="str">
         <f>""""&amp;'N4'!C7&amp;""""</f>
@@ -2980,21 +3909,21 @@
       </c>
       <c r="E7" t="str">
         <f>""""&amp;'N4'!E7&amp;""""</f>
-        <v>"2"</v>
+        <v>"6"</v>
       </c>
       <c r="F7" t="str">
         <f>""""&amp;'N4'!F7&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson1,"</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f>""""&amp;'N4'!A8&amp;""""</f>
-        <v>"それはタイのお土産です"</v>
+        <v>"さようなら"</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>""""&amp;'N4'!B8&amp;""""</f>
-        <v>"Đấy là món quà lưu niệm của Thái Lan."</v>
+        <v>"Tạm biệt "</v>
       </c>
       <c r="C8" t="str">
         <f>""""&amp;'N4'!C8&amp;""""</f>
@@ -3006,21 +3935,21 @@
       </c>
       <c r="E8" t="str">
         <f>""""&amp;'N4'!E8&amp;""""</f>
-        <v>"3"</v>
+        <v>"7"</v>
       </c>
       <c r="F8" t="str">
         <f>""""&amp;'N4'!F8&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson1,"</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f>""""&amp;'N4'!A9&amp;""""</f>
-        <v>"ありがとうございます"</v>
+        <v>"クオンさん。これがあなたの名刺です。"</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>""""&amp;'N4'!B9&amp;""""</f>
-        <v>"Xin cảm ơn chị."</v>
+        <v>"Anh Cường ơi,  Đây là danh thiếp của anh."</v>
       </c>
       <c r="C9" t="str">
         <f>""""&amp;'N4'!C9&amp;""""</f>
@@ -3032,7 +3961,7 @@
       </c>
       <c r="E9" t="str">
         <f>""""&amp;'N4'!E9&amp;""""</f>
-        <v>"4"</v>
+        <v>"1"</v>
       </c>
       <c r="F9" t="str">
         <f>""""&amp;'N4'!F9&amp;""""</f>
@@ -3042,11 +3971,11 @@
     <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f>""""&amp;'N4'!A10&amp;""""</f>
-        <v>"どういたしまして"</v>
+        <v>"ありがとうございます。"</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>""""&amp;'N4'!B10&amp;""""</f>
-        <v>"Không có gì ạ."</v>
+        <v>"Xin cảm ơn chị.  "</v>
       </c>
       <c r="C10" t="str">
         <f>""""&amp;'N4'!C10&amp;""""</f>
@@ -3058,7 +3987,7 @@
       </c>
       <c r="E10" t="str">
         <f>""""&amp;'N4'!E10&amp;""""</f>
-        <v>"5"</v>
+        <v>"2"</v>
       </c>
       <c r="F10" t="str">
         <f>""""&amp;'N4'!F10&amp;""""</f>
@@ -3068,15 +3997,15 @@
     <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f>""""&amp;'N4'!A11&amp;""""</f>
-        <v>""</v>
+        <v>"それは何ですか？ "</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>""""&amp;'N4'!B11&amp;""""</f>
-        <v>""</v>
+        <v>"Đấy là cái gì ạ? "</v>
       </c>
       <c r="C11" t="str">
         <f>""""&amp;'N4'!C11&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D11" t="str">
         <f>""""&amp;'N4'!D11&amp;""""</f>
@@ -3084,7 +4013,7 @@
       </c>
       <c r="E11" t="str">
         <f>""""&amp;'N4'!E11&amp;""""</f>
-        <v>"6"</v>
+        <v>"3"</v>
       </c>
       <c r="F11" t="str">
         <f>""""&amp;'N4'!F11&amp;""""</f>
@@ -3094,15 +4023,15 @@
     <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f>""""&amp;'N4'!A12&amp;""""</f>
-        <v>""</v>
+        <v>"これは社員証(しゃいんしょう)です。"</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>""""&amp;'N4'!B12&amp;""""</f>
-        <v>""</v>
+        <v>"Đây là thẻ nhân viên． "</v>
       </c>
       <c r="C12" t="str">
         <f>""""&amp;'N4'!C12&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D12" t="str">
         <f>""""&amp;'N4'!D12&amp;""""</f>
@@ -3110,7 +4039,7 @@
       </c>
       <c r="E12" t="str">
         <f>""""&amp;'N4'!E12&amp;""""</f>
-        <v>"7"</v>
+        <v>"4"</v>
       </c>
       <c r="F12" t="str">
         <f>""""&amp;'N4'!F12&amp;""""</f>
@@ -3120,15 +4049,15 @@
     <row r="13" spans="1:6">
       <c r="A13" t="str">
         <f>""""&amp;'N4'!A13&amp;""""</f>
-        <v>""</v>
+        <v>"クオンさん、ちょっと…。"</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>""""&amp;'N4'!B13&amp;""""</f>
-        <v>""</v>
+        <v>"Anh Cường ơi, tôi gặp anh một chút được không?"</v>
       </c>
       <c r="C13" t="str">
         <f>""""&amp;'N4'!C13&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D13" t="str">
         <f>""""&amp;'N4'!D13&amp;""""</f>
@@ -3136,25 +4065,25 @@
       </c>
       <c r="E13" t="str">
         <f>""""&amp;'N4'!E13&amp;""""</f>
-        <v>"8"</v>
+        <v>"1"</v>
       </c>
       <c r="F13" t="str">
         <f>""""&amp;'N4'!F13&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson3,"</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="str">
         <f>""""&amp;'N4'!A14&amp;""""</f>
-        <v>""</v>
+        <v>"はい。"</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>""""&amp;'N4'!B14&amp;""""</f>
-        <v>""</v>
+        <v>"OK"</v>
       </c>
       <c r="C14" t="str">
         <f>""""&amp;'N4'!C14&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D14" t="str">
         <f>""""&amp;'N4'!D14&amp;""""</f>
@@ -3162,25 +4091,25 @@
       </c>
       <c r="E14" t="str">
         <f>""""&amp;'N4'!E14&amp;""""</f>
-        <v>"9"</v>
+        <v>"2"</v>
       </c>
       <c r="F14" t="str">
         <f>""""&amp;'N4'!F14&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson3,"</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="str">
         <f>""""&amp;'N4'!A15&amp;""""</f>
-        <v>""</v>
+        <v>"今日、これから会議があります。出て下さい。"</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>""""&amp;'N4'!B15&amp;""""</f>
-        <v>""</v>
+        <v>"Hôm nay, sắp có một cuộc họp. Anh hãy tham dự nhé! "</v>
       </c>
       <c r="C15" t="str">
         <f>""""&amp;'N4'!C15&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D15" t="str">
         <f>""""&amp;'N4'!D15&amp;""""</f>
@@ -3188,25 +4117,25 @@
       </c>
       <c r="E15" t="str">
         <f>""""&amp;'N4'!E15&amp;""""</f>
-        <v>"10"</v>
+        <v>"3"</v>
       </c>
       <c r="F15" t="str">
         <f>""""&amp;'N4'!F15&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson3,"</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="str">
         <f>""""&amp;'N4'!A16&amp;""""</f>
-        <v>""</v>
+        <v>"はい、わかりました。 "</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>""""&amp;'N4'!B16&amp;""""</f>
-        <v>""</v>
+        <v>"Vâng, tôi hiểu rồi. "</v>
       </c>
       <c r="C16" t="str">
         <f>""""&amp;'N4'!C16&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D16" t="str">
         <f>""""&amp;'N4'!D16&amp;""""</f>
@@ -3214,25 +4143,25 @@
       </c>
       <c r="E16" t="str">
         <f>""""&amp;'N4'!E16&amp;""""</f>
-        <v>"11"</v>
+        <v>"4"</v>
       </c>
       <c r="F16" t="str">
         <f>""""&amp;'N4'!F16&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson3,"</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="str">
         <f>""""&amp;'N4'!A17&amp;""""</f>
-        <v>""</v>
+        <v>"場所はどこですか？ "</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>""""&amp;'N4'!B17&amp;""""</f>
-        <v>""</v>
+        <v>"Địa điểm là ở đâu ạ? "</v>
       </c>
       <c r="C17" t="str">
         <f>""""&amp;'N4'!C17&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D17" t="str">
         <f>""""&amp;'N4'!D17&amp;""""</f>
@@ -3240,25 +4169,25 @@
       </c>
       <c r="E17" t="str">
         <f>""""&amp;'N4'!E17&amp;""""</f>
-        <v>"12"</v>
+        <v>"5"</v>
       </c>
       <c r="F17" t="str">
         <f>""""&amp;'N4'!F17&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson3,"</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="str">
         <f>""""&amp;'N4'!A18&amp;""""</f>
-        <v>""</v>
+        <v>"いま何時ですか？ "</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>""""&amp;'N4'!B18&amp;""""</f>
-        <v>""</v>
+        <v>"Bây giờ là mấy giờ ạ? "</v>
       </c>
       <c r="C18" t="str">
         <f>""""&amp;'N4'!C18&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D18" t="str">
         <f>""""&amp;'N4'!D18&amp;""""</f>
@@ -3266,25 +4195,25 @@
       </c>
       <c r="E18" t="str">
         <f>""""&amp;'N4'!E18&amp;""""</f>
-        <v>"13"</v>
+        <v>"1"</v>
       </c>
       <c r="F18" t="str">
         <f>""""&amp;'N4'!F18&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson4,"</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="str">
         <f>""""&amp;'N4'!A19&amp;""""</f>
-        <v>""</v>
+        <v>"よじじゅうごふんです。 "</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>""""&amp;'N4'!B19&amp;""""</f>
-        <v>""</v>
+        <v>"4 giờ 15 phút. "</v>
       </c>
       <c r="C19" t="str">
         <f>""""&amp;'N4'!C19&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D19" t="str">
         <f>""""&amp;'N4'!D19&amp;""""</f>
@@ -3292,25 +4221,25 @@
       </c>
       <c r="E19" t="str">
         <f>""""&amp;'N4'!E19&amp;""""</f>
-        <v>"14"</v>
+        <v>"2"</v>
       </c>
       <c r="F19" t="str">
         <f>""""&amp;'N4'!F19&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson4,"</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="str">
         <f>""""&amp;'N4'!A20&amp;""""</f>
-        <v>""</v>
+        <v>"会議は何時に終わりますか？ "</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>""""&amp;'N4'!B20&amp;""""</f>
-        <v>""</v>
+        <v>"Cuộc họp kết thúc mấy giờ ạ? "</v>
       </c>
       <c r="C20" t="str">
         <f>""""&amp;'N4'!C20&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D20" t="str">
         <f>""""&amp;'N4'!D20&amp;""""</f>
@@ -3318,25 +4247,25 @@
       </c>
       <c r="E20" t="str">
         <f>""""&amp;'N4'!E20&amp;""""</f>
-        <v>"15"</v>
+        <v>"3"</v>
       </c>
       <c r="F20" t="str">
         <f>""""&amp;'N4'!F20&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson4,"</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="str">
         <f>""""&amp;'N4'!A21&amp;""""</f>
-        <v>""</v>
+        <v>"５時ごろですよ。"</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>""""&amp;'N4'!B21&amp;""""</f>
-        <v>""</v>
+        <v>"Khoảng 5 giờ đấy. "</v>
       </c>
       <c r="C21" t="str">
         <f>""""&amp;'N4'!C21&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D21" t="str">
         <f>""""&amp;'N4'!D21&amp;""""</f>
@@ -3344,25 +4273,25 @@
       </c>
       <c r="E21" t="str">
         <f>""""&amp;'N4'!E21&amp;""""</f>
-        <v>"16"</v>
+        <v>"4"</v>
       </c>
       <c r="F21" t="str">
         <f>""""&amp;'N4'!F21&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson4,"</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="str">
         <f>""""&amp;'N4'!A22&amp;""""</f>
-        <v>""</v>
+        <v>"山田さん、一緒に帰りませんか？ "</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>""""&amp;'N4'!B22&amp;""""</f>
-        <v>""</v>
+        <v>"Chị Yamada ơi, chị có về cùng với tôi không? "</v>
       </c>
       <c r="C22" t="str">
         <f>""""&amp;'N4'!C22&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D22" t="str">
         <f>""""&amp;'N4'!D22&amp;""""</f>
@@ -3370,25 +4299,25 @@
       </c>
       <c r="E22" t="str">
         <f>""""&amp;'N4'!E22&amp;""""</f>
-        <v>"17"</v>
+        <v>"1"</v>
       </c>
       <c r="F22" t="str">
         <f>""""&amp;'N4'!F22&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson5,"</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="str">
         <f>""""&amp;'N4'!A23&amp;""""</f>
-        <v>""</v>
+        <v>"ごめんなさい。 まだ仕事が終わりません。クオンさんも手伝ってください。"</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>""""&amp;'N4'!B23&amp;""""</f>
-        <v>""</v>
+        <v>"Tôi xin lỗi. Công việc của tôi vẫn chưa xong. Anh Cường hãy giúp tôi với."</v>
       </c>
       <c r="C23" t="str">
         <f>""""&amp;'N4'!C23&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D23" t="str">
         <f>""""&amp;'N4'!D23&amp;""""</f>
@@ -3396,25 +4325,25 @@
       </c>
       <c r="E23" t="str">
         <f>""""&amp;'N4'!E23&amp;""""</f>
-        <v>"18"</v>
+        <v>"2"</v>
       </c>
       <c r="F23" t="str">
         <f>""""&amp;'N4'!F23&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson5,"</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="str">
         <f>""""&amp;'N4'!A24&amp;""""</f>
-        <v>""</v>
+        <v>"えーと、今日は残業できません。"</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>""""&amp;'N4'!B24&amp;""""</f>
-        <v>""</v>
+        <v>"Umm… hôm nay tôi không thể làm thêm giờ được."</v>
       </c>
       <c r="C24" t="str">
         <f>""""&amp;'N4'!C24&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D24" t="str">
         <f>""""&amp;'N4'!D24&amp;""""</f>
@@ -3422,25 +4351,25 @@
       </c>
       <c r="E24" t="str">
         <f>""""&amp;'N4'!E24&amp;""""</f>
-        <v>"19"</v>
+        <v>"3"</v>
       </c>
       <c r="F24" t="str">
         <f>""""&amp;'N4'!F24&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson5,"</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>""""&amp;'N4'!A25&amp;""""</f>
-        <v>""</v>
+        <v>"明日の朝、市役所と銀⾏に⾏ってから、 会社に来ます。"</v>
       </c>
       <c r="B25" s="3" t="str">
         <f>""""&amp;'N4'!B25&amp;""""</f>
-        <v>""</v>
+        <v>"Sáng mai, tôi đi tòa thị chính và ngân hàng, rồi sau đó đến công ty ạ."</v>
       </c>
       <c r="C25" t="str">
         <f>""""&amp;'N4'!C25&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D25" t="str">
         <f>""""&amp;'N4'!D25&amp;""""</f>
@@ -3448,25 +4377,25 @@
       </c>
       <c r="E25" t="str">
         <f>""""&amp;'N4'!E25&amp;""""</f>
-        <v>"20"</v>
+        <v>"1"</v>
       </c>
       <c r="F25" t="str">
         <f>""""&amp;'N4'!F25&amp;""""</f>
-        <v>",speechN4,lesson2,"</v>
+        <v>",speechN4,lesson6,"</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="str">
         <f>""""&amp;'N4'!A26&amp;""""</f>
-        <v>""</v>
+        <v>"そうですか。午前中に市役所と銀⾏ですね。"</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>""""&amp;'N4'!B26&amp;""""</f>
-        <v>""</v>
+        <v>"Vậy à?  Buổi sáng, cậu đi tòa thị chính và ngân hàng hả?"</v>
       </c>
       <c r="C26" t="str">
         <f>""""&amp;'N4'!C26&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D26" t="str">
         <f>""""&amp;'N4'!D26&amp;""""</f>
@@ -3474,25 +4403,25 @@
       </c>
       <c r="E26" t="str">
         <f>""""&amp;'N4'!E26&amp;""""</f>
-        <v>"1"</v>
+        <v>"2"</v>
       </c>
       <c r="F26" t="str">
         <f>""""&amp;'N4'!F26&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson6,"</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="str">
         <f>""""&amp;'N4'!A27&amp;""""</f>
-        <v>""</v>
+        <v>"はい。銀⾏で口座を開きます。"</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>""""&amp;'N4'!B27&amp;""""</f>
-        <v>""</v>
+        <v>"Vâng. Tôi sẽ mở một tài khoản ở ngân hàng. "</v>
       </c>
       <c r="C27" t="str">
         <f>""""&amp;'N4'!C27&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D27" t="str">
         <f>""""&amp;'N4'!D27&amp;""""</f>
@@ -3500,25 +4429,25 @@
       </c>
       <c r="E27" t="str">
         <f>""""&amp;'N4'!E27&amp;""""</f>
-        <v>"2"</v>
+        <v>"3"</v>
       </c>
       <c r="F27" t="str">
         <f>""""&amp;'N4'!F27&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson6,"</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="str">
         <f>""""&amp;'N4'!A28&amp;""""</f>
-        <v>""</v>
+        <v>"今日はどのようなご用件ですか？ "</v>
       </c>
       <c r="B28" s="3" t="str">
         <f>""""&amp;'N4'!B28&amp;""""</f>
-        <v>""</v>
+        <v>"Tôi có thể giúp gì ạ?"</v>
       </c>
       <c r="C28" t="str">
         <f>""""&amp;'N4'!C28&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D28" t="str">
         <f>""""&amp;'N4'!D28&amp;""""</f>
@@ -3526,25 +4455,25 @@
       </c>
       <c r="E28" t="str">
         <f>""""&amp;'N4'!E28&amp;""""</f>
-        <v>"3"</v>
+        <v>"1"</v>
       </c>
       <c r="F28" t="str">
         <f>""""&amp;'N4'!F28&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson7,"</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="str">
         <f>""""&amp;'N4'!A29&amp;""""</f>
-        <v>""</v>
+        <v>"口座を開きたいんですが…。"</v>
       </c>
       <c r="B29" s="3" t="str">
         <f>""""&amp;'N4'!B29&amp;""""</f>
-        <v>""</v>
+        <v>"Tôi muốn mở một tài khoản…"</v>
       </c>
       <c r="C29" t="str">
         <f>""""&amp;'N4'!C29&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D29" t="str">
         <f>""""&amp;'N4'!D29&amp;""""</f>
@@ -3552,25 +4481,25 @@
       </c>
       <c r="E29" t="str">
         <f>""""&amp;'N4'!E29&amp;""""</f>
-        <v>"4"</v>
+        <v>"2"</v>
       </c>
       <c r="F29" t="str">
         <f>""""&amp;'N4'!F29&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson7,"</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="str">
         <f>""""&amp;'N4'!A30&amp;""""</f>
-        <v>""</v>
+        <v>"こちらにお名前とご住所、 お電話番号を書いてください。"</v>
       </c>
       <c r="B30" s="3" t="str">
         <f>""""&amp;'N4'!B30&amp;""""</f>
-        <v>""</v>
+        <v>"Xin hãy viết tên, địa chỉ, số điện thoại vào đây. "</v>
       </c>
       <c r="C30" t="str">
         <f>""""&amp;'N4'!C30&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D30" t="str">
         <f>""""&amp;'N4'!D30&amp;""""</f>
@@ -3578,25 +4507,25 @@
       </c>
       <c r="E30" t="str">
         <f>""""&amp;'N4'!E30&amp;""""</f>
-        <v>"5"</v>
+        <v>"3"</v>
       </c>
       <c r="F30" t="str">
         <f>""""&amp;'N4'!F30&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson7,"</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="str">
         <f>""""&amp;'N4'!A31&amp;""""</f>
-        <v>""</v>
+        <v>"どうしよう…。財布を落としてしまいました。"</v>
       </c>
       <c r="B31" s="3" t="str">
         <f>""""&amp;'N4'!B31&amp;""""</f>
-        <v>""</v>
+        <v>"Làm thế nào bây giờ... Tôi đánh rơi ví mất rồi."</v>
       </c>
       <c r="C31" t="str">
         <f>""""&amp;'N4'!C31&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D31" t="str">
         <f>""""&amp;'N4'!D31&amp;""""</f>
@@ -3604,25 +4533,25 @@
       </c>
       <c r="E31" t="str">
         <f>""""&amp;'N4'!E31&amp;""""</f>
-        <v>"6"</v>
+        <v>"1"</v>
       </c>
       <c r="F31" t="str">
         <f>""""&amp;'N4'!F31&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson8,"</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="str">
         <f>""""&amp;'N4'!A32&amp;""""</f>
-        <v>""</v>
+        <v>"本当？ "</v>
       </c>
       <c r="B32" s="3" t="str">
         <f>""""&amp;'N4'!B32&amp;""""</f>
-        <v>""</v>
+        <v>"Thật không? "</v>
       </c>
       <c r="C32" t="str">
         <f>""""&amp;'N4'!C32&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D32" t="str">
         <f>""""&amp;'N4'!D32&amp;""""</f>
@@ -3630,25 +4559,25 @@
       </c>
       <c r="E32" t="str">
         <f>""""&amp;'N4'!E32&amp;""""</f>
-        <v>"7"</v>
+        <v>"2"</v>
       </c>
       <c r="F32" t="str">
         <f>""""&amp;'N4'!F32&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson8,"</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="str">
         <f>""""&amp;'N4'!A33&amp;""""</f>
-        <v>""</v>
+        <v>"いつ最後に使いましたか？"</v>
       </c>
       <c r="B33" s="3" t="str">
         <f>""""&amp;'N4'!B33&amp;""""</f>
-        <v>""</v>
+        <v>"Anh dùng nó lần cuối khi nào?"</v>
       </c>
       <c r="C33" t="str">
         <f>""""&amp;'N4'!C33&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D33" t="str">
         <f>""""&amp;'N4'!D33&amp;""""</f>
@@ -3656,25 +4585,25 @@
       </c>
       <c r="E33" t="str">
         <f>""""&amp;'N4'!E33&amp;""""</f>
-        <v>"8"</v>
+        <v>"3"</v>
       </c>
       <c r="F33" t="str">
         <f>""""&amp;'N4'!F33&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson8,"</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="str">
         <f>""""&amp;'N4'!A34&amp;""""</f>
-        <v>""</v>
+        <v>"いつかな…。 "</v>
       </c>
       <c r="B34" s="3" t="str">
         <f>""""&amp;'N4'!B34&amp;""""</f>
-        <v>""</v>
+        <v>"Lúc nào nhỉ... "</v>
       </c>
       <c r="C34" t="str">
         <f>""""&amp;'N4'!C34&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D34" t="str">
         <f>""""&amp;'N4'!D34&amp;""""</f>
@@ -3682,25 +4611,25 @@
       </c>
       <c r="E34" t="str">
         <f>""""&amp;'N4'!E34&amp;""""</f>
-        <v>"9"</v>
+        <v>"4"</v>
       </c>
       <c r="F34" t="str">
         <f>""""&amp;'N4'!F34&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson8,"</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="str">
         <f>""""&amp;'N4'!A35&amp;""""</f>
-        <v>""</v>
+        <v>"とにかく警察に届けましょう。"</v>
       </c>
       <c r="B35" s="3" t="str">
         <f>""""&amp;'N4'!B35&amp;""""</f>
-        <v>""</v>
+        <v>"Dù sao thì hãy cứ báo cảnh sát đã. "</v>
       </c>
       <c r="C35" t="str">
         <f>""""&amp;'N4'!C35&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D35" t="str">
         <f>""""&amp;'N4'!D35&amp;""""</f>
@@ -3708,25 +4637,25 @@
       </c>
       <c r="E35" t="str">
         <f>""""&amp;'N4'!E35&amp;""""</f>
-        <v>"10"</v>
+        <v>"5"</v>
       </c>
       <c r="F35" t="str">
         <f>""""&amp;'N4'!F35&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson8,"</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="str">
         <f>""""&amp;'N4'!A36&amp;""""</f>
-        <v>""</v>
+        <v>"はい。ＡＢＣ電器です。"</v>
       </c>
       <c r="B36" s="3" t="str">
         <f>""""&amp;'N4'!B36&amp;""""</f>
-        <v>""</v>
+        <v>"Xin chào! Đây là công ty điện tử ABC"</v>
       </c>
       <c r="C36" t="str">
         <f>""""&amp;'N4'!C36&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D36" t="str">
         <f>""""&amp;'N4'!D36&amp;""""</f>
@@ -3734,25 +4663,25 @@
       </c>
       <c r="E36" t="str">
         <f>""""&amp;'N4'!E36&amp;""""</f>
-        <v>"11"</v>
+        <v>"1"</v>
       </c>
       <c r="F36" t="str">
         <f>""""&amp;'N4'!F36&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson9,"</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="str">
         <f>""""&amp;'N4'!A37&amp;""""</f>
-        <v>""</v>
+        <v>"ジャパン会社の田中と申しますが、山田さんはいらっしゃいますか？"</v>
       </c>
       <c r="B37" s="3" t="str">
         <f>""""&amp;'N4'!B37&amp;""""</f>
-        <v>""</v>
+        <v>"Tôi là Tanaka ở công ty Japan Gaisha. Cô Yamada có ở đấy không ạ?  "</v>
       </c>
       <c r="C37" t="str">
         <f>""""&amp;'N4'!C37&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D37" t="str">
         <f>""""&amp;'N4'!D37&amp;""""</f>
@@ -3760,25 +4689,25 @@
       </c>
       <c r="E37" t="str">
         <f>""""&amp;'N4'!E37&amp;""""</f>
-        <v>"12"</v>
+        <v>"2"</v>
       </c>
       <c r="F37" t="str">
         <f>""""&amp;'N4'!F37&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson9,"</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="str">
         <f>""""&amp;'N4'!A38&amp;""""</f>
-        <v>""</v>
+        <v>"やっ山田ですね。"</v>
       </c>
       <c r="B38" s="3" t="str">
         <f>""""&amp;'N4'!B38&amp;""""</f>
-        <v>""</v>
+        <v>"Ya… Yamada phải không ạ? "</v>
       </c>
       <c r="C38" t="str">
         <f>""""&amp;'N4'!C38&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D38" t="str">
         <f>""""&amp;'N4'!D38&amp;""""</f>
@@ -3786,25 +4715,25 @@
       </c>
       <c r="E38" t="str">
         <f>""""&amp;'N4'!E38&amp;""""</f>
-        <v>"13"</v>
+        <v>"3"</v>
       </c>
       <c r="F38" t="str">
         <f>""""&amp;'N4'!F38&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson9,"</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="str">
         <f>""""&amp;'N4'!A39&amp;""""</f>
-        <v>""</v>
+        <v>"少 々お待ちください。"</v>
       </c>
       <c r="B39" s="3" t="str">
         <f>""""&amp;'N4'!B39&amp;""""</f>
-        <v>""</v>
+        <v>"Xin đợi một lát. "</v>
       </c>
       <c r="C39" t="str">
         <f>""""&amp;'N4'!C39&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D39" t="str">
         <f>""""&amp;'N4'!D39&amp;""""</f>
@@ -3812,11 +4741,11 @@
       </c>
       <c r="E39" t="str">
         <f>""""&amp;'N4'!E39&amp;""""</f>
-        <v>"14"</v>
+        <v>"4"</v>
       </c>
       <c r="F39" t="str">
         <f>""""&amp;'N4'!F39&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>",speechN4,lesson9,"</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3834,15 +4763,15 @@
       </c>
       <c r="D40" t="str">
         <f>""""&amp;'N4'!D40&amp;""""</f>
-        <v>"N4"</v>
+        <v>""</v>
       </c>
       <c r="E40" t="str">
         <f>""""&amp;'N4'!E40&amp;""""</f>
-        <v>"15"</v>
+        <v>""</v>
       </c>
       <c r="F40" t="str">
         <f>""""&amp;'N4'!F40&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>""</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3860,15 +4789,15 @@
       </c>
       <c r="D41" t="str">
         <f>""""&amp;'N4'!D41&amp;""""</f>
-        <v>"N4"</v>
+        <v>""</v>
       </c>
       <c r="E41" t="str">
         <f>""""&amp;'N4'!E41&amp;""""</f>
-        <v>"16"</v>
+        <v>""</v>
       </c>
       <c r="F41" t="str">
         <f>""""&amp;'N4'!F41&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>""</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3886,15 +4815,15 @@
       </c>
       <c r="D42" t="str">
         <f>""""&amp;'N4'!D42&amp;""""</f>
-        <v>"N4"</v>
+        <v>""</v>
       </c>
       <c r="E42" t="str">
         <f>""""&amp;'N4'!E42&amp;""""</f>
-        <v>"17"</v>
+        <v>""</v>
       </c>
       <c r="F42" t="str">
         <f>""""&amp;'N4'!F42&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>""</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3912,15 +4841,15 @@
       </c>
       <c r="D43" t="str">
         <f>""""&amp;'N4'!D43&amp;""""</f>
-        <v>"N4"</v>
+        <v>""</v>
       </c>
       <c r="E43" t="str">
         <f>""""&amp;'N4'!E43&amp;""""</f>
-        <v>"18"</v>
+        <v>""</v>
       </c>
       <c r="F43" t="str">
         <f>""""&amp;'N4'!F43&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>""</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3938,15 +4867,15 @@
       </c>
       <c r="D44" t="str">
         <f>""""&amp;'N4'!D44&amp;""""</f>
-        <v>"N4"</v>
+        <v>""</v>
       </c>
       <c r="E44" t="str">
         <f>""""&amp;'N4'!E44&amp;""""</f>
-        <v>"19"</v>
+        <v>""</v>
       </c>
       <c r="F44" t="str">
         <f>""""&amp;'N4'!F44&amp;""""</f>
-        <v>",speechN4,lesson3,"</v>
+        <v>""</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11804,5 +12733,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/speed_list.xlsx
+++ b/work/speed_list.xlsx
@@ -11,14 +11,14 @@
     <sheet name="working" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N4'!$A$1:$F$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N4'!$A$1:$F$206</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="471">
   <si>
     <t>level</t>
   </si>
@@ -2616,7 +2616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2655,13 +2655,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2706,7 +2699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2743,7 +2736,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3048,7 +3040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3850,8 +3842,12 @@
       <c r="B40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="4">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
@@ -3866,8 +3862,12 @@
       <c r="B41" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
@@ -3882,8 +3882,12 @@
       <c r="B42" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="9">
         <v>3</v>
       </c>
@@ -3898,8 +3902,12 @@
       <c r="B43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="9">
         <v>4</v>
       </c>
@@ -3914,8 +3922,12 @@
       <c r="B44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="4">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="9">
         <v>5</v>
       </c>
@@ -3930,8 +3942,12 @@
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="9">
         <v>1</v>
       </c>
@@ -3946,8 +3962,12 @@
       <c r="B46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="9">
         <v>2</v>
       </c>
@@ -3962,8 +3982,12 @@
       <c r="B47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="4">
+        <v>5</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E47" s="9">
         <v>3</v>
       </c>
@@ -3978,8 +4002,12 @@
       <c r="B48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E48" s="9">
         <v>4</v>
       </c>
@@ -3994,8 +4022,12 @@
       <c r="B49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E49" s="9">
         <v>1</v>
       </c>
@@ -4010,8 +4042,12 @@
       <c r="B50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="4">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="9">
         <v>2</v>
       </c>
@@ -4026,8 +4062,12 @@
       <c r="B51" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="9">
         <v>3</v>
       </c>
@@ -4042,8 +4082,12 @@
       <c r="B52" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="4">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="9">
         <v>4</v>
       </c>
@@ -4058,8 +4102,12 @@
       <c r="B53" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="9">
         <v>1</v>
       </c>
@@ -4074,8 +4122,12 @@
       <c r="B54" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="4">
+        <v>5</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
@@ -4090,8 +4142,12 @@
       <c r="B55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="9">
         <v>1</v>
       </c>
@@ -4106,8 +4162,12 @@
       <c r="B56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="4">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
@@ -4122,8 +4182,12 @@
       <c r="B57" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="9">
         <v>3</v>
       </c>
@@ -4138,8 +4202,12 @@
       <c r="B58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="4">
+        <v>5</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E58" s="9">
         <v>4</v>
       </c>
@@ -4154,8 +4222,12 @@
       <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="4">
+        <v>5</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E59" s="9">
         <v>1</v>
       </c>
@@ -4170,8 +4242,12 @@
       <c r="B60" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E60" s="9">
         <v>2</v>
       </c>
@@ -4186,8 +4262,12 @@
       <c r="B61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="4">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E61" s="9">
         <v>3</v>
       </c>
@@ -4202,8 +4282,12 @@
       <c r="B62" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="9">
         <v>4</v>
       </c>
@@ -4218,8 +4302,12 @@
       <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="4">
+        <v>5</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E63" s="9">
         <v>1</v>
       </c>
@@ -4234,8 +4322,12 @@
       <c r="B64" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E64" s="9">
         <v>2</v>
       </c>
@@ -4250,8 +4342,12 @@
       <c r="B65" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="4">
+        <v>5</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E65" s="9">
         <v>3</v>
       </c>
@@ -4266,8 +4362,12 @@
       <c r="B66" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
@@ -4282,8 +4382,12 @@
       <c r="B67" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="4">
+        <v>5</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E67" s="9">
         <v>2</v>
       </c>
@@ -4298,8 +4402,12 @@
       <c r="B68" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E68" s="9">
         <v>3</v>
       </c>
@@ -4314,8 +4422,12 @@
       <c r="B69" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="4">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E69" s="9">
         <v>1</v>
       </c>
@@ -4330,8 +4442,12 @@
       <c r="B70" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="4">
+        <v>5</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E70" s="9">
         <v>2</v>
       </c>
@@ -4346,8 +4462,12 @@
       <c r="B71" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="4">
+        <v>5</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E71" s="9">
         <v>3</v>
       </c>
@@ -4362,8 +4482,12 @@
       <c r="B72" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="8"/>
+      <c r="C72" s="4">
+        <v>5</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E72" s="9">
         <v>4</v>
       </c>
@@ -4378,8 +4502,12 @@
       <c r="B73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="4">
+        <v>5</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E73" s="9">
         <v>1</v>
       </c>
@@ -4394,8 +4522,12 @@
       <c r="B74" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="4">
+        <v>5</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E74" s="9">
         <v>2</v>
       </c>
@@ -4410,8 +4542,12 @@
       <c r="B75" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E75" s="8">
         <v>3</v>
       </c>
@@ -4426,8 +4562,12 @@
       <c r="B76" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="4">
+        <v>5</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E76" s="8">
         <v>4</v>
       </c>
@@ -4442,8 +4582,12 @@
       <c r="B77" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="4">
+        <v>5</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E77" s="9">
         <v>5</v>
       </c>
@@ -4458,8 +4602,12 @@
       <c r="B78" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="4">
+        <v>5</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
@@ -4474,8 +4622,12 @@
       <c r="B79" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="4">
+        <v>5</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E79" s="9">
         <v>2</v>
       </c>
@@ -4490,8 +4642,12 @@
       <c r="B80" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="4">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E80" s="9">
         <v>3</v>
       </c>
@@ -4506,8 +4662,12 @@
       <c r="B81" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="4">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E81" s="9">
         <v>4</v>
       </c>
@@ -4522,8 +4682,12 @@
       <c r="B82" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="4">
+        <v>5</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E82" s="9">
         <v>5</v>
       </c>
@@ -4538,8 +4702,12 @@
       <c r="B83" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="4">
+        <v>5</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E83" s="9">
         <v>1</v>
       </c>
@@ -4554,8 +4722,12 @@
       <c r="B84" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="4">
+        <v>5</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E84" s="9">
         <v>2</v>
       </c>
@@ -4570,8 +4742,12 @@
       <c r="B85" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="4">
+        <v>5</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E85" s="9">
         <v>3</v>
       </c>
@@ -4586,8 +4762,12 @@
       <c r="B86" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="4">
+        <v>5</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E86" s="9">
         <v>4</v>
       </c>
@@ -4602,8 +4782,12 @@
       <c r="B87" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="4">
+        <v>5</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E87" s="9">
         <v>5</v>
       </c>
@@ -4618,8 +4802,12 @@
       <c r="B88" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="4">
+        <v>5</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E88" s="9">
         <v>1</v>
       </c>
@@ -4634,8 +4822,12 @@
       <c r="B89" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="4">
+        <v>5</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E89" s="9">
         <v>2</v>
       </c>
@@ -4650,8 +4842,12 @@
       <c r="B90" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E90" s="9">
         <v>3</v>
       </c>
@@ -4666,8 +4862,12 @@
       <c r="B91" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="4">
+        <v>5</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E91" s="9">
         <v>1</v>
       </c>
@@ -4682,8 +4882,12 @@
       <c r="B92" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="4">
+        <v>5</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E92" s="9">
         <v>2</v>
       </c>
@@ -4698,8 +4902,12 @@
       <c r="B93" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="4">
+        <v>5</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E93" s="9">
         <v>3</v>
       </c>
@@ -4714,8 +4922,12 @@
       <c r="B94" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="4">
+        <v>5</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E94" s="9">
         <v>4</v>
       </c>
@@ -4730,8 +4942,12 @@
       <c r="B95" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="4">
+        <v>5</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E95" s="9">
         <v>5</v>
       </c>
@@ -4746,8 +4962,12 @@
       <c r="B96" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="4">
+        <v>5</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E96" s="9">
         <v>1</v>
       </c>
@@ -4762,8 +4982,12 @@
       <c r="B97" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="4">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E97" s="9">
         <v>2</v>
       </c>
@@ -4778,8 +5002,12 @@
       <c r="B98" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="4">
+        <v>5</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E98" s="9">
         <v>3</v>
       </c>
@@ -4794,8 +5022,12 @@
       <c r="B99" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="4">
+        <v>5</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E99" s="9">
         <v>4</v>
       </c>
@@ -4810,8 +5042,12 @@
       <c r="B100" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="4">
+        <v>5</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E100" s="9">
         <v>5</v>
       </c>
@@ -4826,8 +5062,12 @@
       <c r="B101" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="4">
+        <v>5</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E101" s="9">
         <v>1</v>
       </c>
@@ -4842,8 +5082,12 @@
       <c r="B102" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="4">
+        <v>5</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E102" s="9">
         <v>2</v>
       </c>
@@ -4858,8 +5102,12 @@
       <c r="B103" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E103" s="9">
         <v>3</v>
       </c>
@@ -4874,8 +5122,12 @@
       <c r="B104" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="4">
+        <v>5</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E104" s="9">
         <v>4</v>
       </c>
@@ -4890,8 +5142,12 @@
       <c r="B105" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="4">
+        <v>5</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E105" s="9">
         <v>5</v>
       </c>
@@ -4906,8 +5162,12 @@
       <c r="B106" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E106" s="9">
         <v>1</v>
       </c>
@@ -4922,8 +5182,12 @@
       <c r="B107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E107" s="9">
         <v>2</v>
       </c>
@@ -4938,8 +5202,12 @@
       <c r="B108" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="4">
+        <v>5</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E108" s="9">
         <v>3</v>
       </c>
@@ -4954,8 +5222,12 @@
       <c r="B109" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="4">
+        <v>5</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E109" s="9">
         <v>1</v>
       </c>
@@ -4970,8 +5242,12 @@
       <c r="B110" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="8"/>
+      <c r="C110" s="4">
+        <v>5</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E110" s="9">
         <v>2</v>
       </c>
@@ -4986,8 +5262,12 @@
       <c r="B111" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="8"/>
+      <c r="C111" s="4">
+        <v>5</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E111" s="9">
         <v>3</v>
       </c>
@@ -5002,8 +5282,12 @@
       <c r="B112" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="8"/>
+      <c r="C112" s="4">
+        <v>5</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E112" s="9">
         <v>4</v>
       </c>
@@ -5018,8 +5302,12 @@
       <c r="B113" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="8"/>
+      <c r="C113" s="4">
+        <v>5</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E113" s="9">
         <v>1</v>
       </c>
@@ -5034,8 +5322,12 @@
       <c r="B114" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="8"/>
+      <c r="C114" s="4">
+        <v>5</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E114" s="9">
         <v>2</v>
       </c>
@@ -5050,8 +5342,12 @@
       <c r="B115" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="8"/>
+      <c r="C115" s="4">
+        <v>5</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E115" s="9">
         <v>3</v>
       </c>
@@ -5066,8 +5362,12 @@
       <c r="B116" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="8"/>
+      <c r="C116" s="4">
+        <v>5</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E116" s="9">
         <v>4</v>
       </c>
@@ -5082,8 +5382,12 @@
       <c r="B117" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="8"/>
+      <c r="C117" s="4">
+        <v>5</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E117" s="9">
         <v>1</v>
       </c>
@@ -5098,8 +5402,12 @@
       <c r="B118" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="4">
+        <v>5</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E118" s="9">
         <v>2</v>
       </c>
@@ -5114,8 +5422,12 @@
       <c r="B119" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="4">
+        <v>5</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E119" s="9">
         <v>3</v>
       </c>
@@ -5130,8 +5442,12 @@
       <c r="B120" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="4">
+        <v>5</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E120" s="9">
         <v>4</v>
       </c>
@@ -5146,8 +5462,12 @@
       <c r="B121" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="4">
+        <v>5</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E121" s="9">
         <v>1</v>
       </c>
@@ -5162,8 +5482,12 @@
       <c r="B122" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="4">
+        <v>5</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E122" s="9">
         <v>2</v>
       </c>
@@ -5178,8 +5502,12 @@
       <c r="B123" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="4">
+        <v>5</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E123" s="9">
         <v>3</v>
       </c>
@@ -5194,8 +5522,12 @@
       <c r="B124" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="4">
+        <v>5</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E124" s="9">
         <v>4</v>
       </c>
@@ -5210,8 +5542,12 @@
       <c r="B125" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="8"/>
+      <c r="C125" s="4">
+        <v>5</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E125" s="9">
         <v>1</v>
       </c>
@@ -5226,8 +5562,12 @@
       <c r="B126" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="8"/>
+      <c r="C126" s="4">
+        <v>5</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E126" s="9">
         <v>2</v>
       </c>
@@ -5242,8 +5582,12 @@
       <c r="B127" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="8"/>
+      <c r="C127" s="4">
+        <v>5</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E127" s="9">
         <v>1</v>
       </c>
@@ -5258,8 +5602,12 @@
       <c r="B128" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="8"/>
+      <c r="C128" s="4">
+        <v>5</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E128" s="9">
         <v>2</v>
       </c>
@@ -5274,8 +5622,12 @@
       <c r="B129" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="8"/>
+      <c r="C129" s="4">
+        <v>5</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E129" s="9">
         <v>3</v>
       </c>
@@ -5290,8 +5642,12 @@
       <c r="B130" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="4">
+        <v>5</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E130" s="9">
         <v>1</v>
       </c>
@@ -5306,8 +5662,12 @@
       <c r="B131" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="4">
+        <v>5</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E131" s="9">
         <v>2</v>
       </c>
@@ -5322,8 +5682,12 @@
       <c r="B132" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="4">
+        <v>5</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E132" s="9">
         <v>3</v>
       </c>
@@ -5338,8 +5702,12 @@
       <c r="B133" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="4">
+        <v>5</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E133" s="9">
         <v>1</v>
       </c>
@@ -5354,8 +5722,12 @@
       <c r="B134" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="4">
+        <v>5</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E134" s="9">
         <v>2</v>
       </c>
@@ -5370,8 +5742,12 @@
       <c r="B135" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="4">
+        <v>5</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E135" s="9">
         <v>3</v>
       </c>
@@ -5386,8 +5762,12 @@
       <c r="B136" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="4">
+        <v>5</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E136" s="9">
         <v>4</v>
       </c>
@@ -5402,8 +5782,12 @@
       <c r="B137" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="4">
+        <v>5</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E137" s="9">
         <v>1</v>
       </c>
@@ -5418,8 +5802,12 @@
       <c r="B138" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="4">
+        <v>5</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E138" s="9">
         <v>2</v>
       </c>
@@ -5434,8 +5822,12 @@
       <c r="B139" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="4">
+        <v>5</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E139" s="9">
         <v>3</v>
       </c>
@@ -5450,8 +5842,12 @@
       <c r="B140" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="4">
+        <v>5</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E140" s="9">
         <v>4</v>
       </c>
@@ -5466,8 +5862,12 @@
       <c r="B141" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="4">
+        <v>5</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E141" s="9">
         <v>1</v>
       </c>
@@ -5482,8 +5882,12 @@
       <c r="B142" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="8"/>
+      <c r="C142" s="4">
+        <v>5</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E142" s="9">
         <v>2</v>
       </c>
@@ -5498,8 +5902,12 @@
       <c r="B143" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="8"/>
+      <c r="C143" s="4">
+        <v>5</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E143" s="9">
         <v>3</v>
       </c>
@@ -5514,8 +5922,12 @@
       <c r="B144" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="8"/>
+      <c r="C144" s="4">
+        <v>5</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E144" s="9">
         <v>4</v>
       </c>
@@ -5530,8 +5942,12 @@
       <c r="B145" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="8"/>
+      <c r="C145" s="4">
+        <v>5</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E145" s="9">
         <v>1</v>
       </c>
@@ -5546,8 +5962,12 @@
       <c r="B146" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="8"/>
+      <c r="C146" s="4">
+        <v>5</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E146" s="9">
         <v>2</v>
       </c>
@@ -5562,8 +5982,12 @@
       <c r="B147" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="8"/>
+      <c r="C147" s="4">
+        <v>5</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E147" s="9">
         <v>3</v>
       </c>
@@ -5578,8 +6002,12 @@
       <c r="B148" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="4">
+        <v>5</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E148" s="9">
         <v>1</v>
       </c>
@@ -5594,8 +6022,12 @@
       <c r="B149" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="4">
+        <v>5</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E149" s="9">
         <v>2</v>
       </c>
@@ -5610,8 +6042,12 @@
       <c r="B150" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="4">
+        <v>5</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E150" s="9">
         <v>3</v>
       </c>
@@ -5626,8 +6062,12 @@
       <c r="B151" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="8"/>
+      <c r="C151" s="4">
+        <v>5</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E151" s="9">
         <v>4</v>
       </c>
@@ -5642,8 +6082,12 @@
       <c r="B152" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="4">
+        <v>5</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E152" s="9">
         <v>1</v>
       </c>
@@ -5658,8 +6102,12 @@
       <c r="B153" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="8"/>
+      <c r="C153" s="4">
+        <v>5</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E153" s="9">
         <v>2</v>
       </c>
@@ -5674,8 +6122,12 @@
       <c r="B154" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="8"/>
+      <c r="C154" s="4">
+        <v>5</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E154" s="9">
         <v>3</v>
       </c>
@@ -5690,8 +6142,12 @@
       <c r="B155" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="8"/>
+      <c r="C155" s="4">
+        <v>5</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E155" s="9">
         <v>4</v>
       </c>
@@ -5706,8 +6162,12 @@
       <c r="B156" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="8"/>
+      <c r="C156" s="4">
+        <v>5</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E156" s="9">
         <v>1</v>
       </c>
@@ -5722,8 +6182,12 @@
       <c r="B157" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="8"/>
+      <c r="C157" s="4">
+        <v>5</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E157" s="9">
         <v>2</v>
       </c>
@@ -5738,8 +6202,12 @@
       <c r="B158" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="8"/>
+      <c r="C158" s="4">
+        <v>5</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E158" s="9">
         <v>3</v>
       </c>
@@ -5754,8 +6222,12 @@
       <c r="B159" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="8"/>
+      <c r="C159" s="4">
+        <v>5</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E159" s="9">
         <v>4</v>
       </c>
@@ -5770,8 +6242,12 @@
       <c r="B160" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="8"/>
+      <c r="C160" s="4">
+        <v>5</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E160" s="9">
         <v>1</v>
       </c>
@@ -5786,8 +6262,12 @@
       <c r="B161" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="8"/>
+      <c r="C161" s="4">
+        <v>5</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E161" s="9">
         <v>2</v>
       </c>
@@ -5802,8 +6282,12 @@
       <c r="B162" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="8"/>
+      <c r="C162" s="4">
+        <v>5</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E162" s="9">
         <v>3</v>
       </c>
@@ -5818,8 +6302,12 @@
       <c r="B163" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="8"/>
+      <c r="C163" s="4">
+        <v>5</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E163" s="9">
         <v>4</v>
       </c>
@@ -5834,8 +6322,12 @@
       <c r="B164" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="8"/>
+      <c r="C164" s="4">
+        <v>5</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E164" s="9">
         <v>5</v>
       </c>
@@ -5850,8 +6342,12 @@
       <c r="B165" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="8"/>
+      <c r="C165" s="4">
+        <v>5</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E165" s="9">
         <v>1</v>
       </c>
@@ -5866,8 +6362,12 @@
       <c r="B166" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="8"/>
+      <c r="C166" s="4">
+        <v>5</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E166" s="9">
         <v>2</v>
       </c>
@@ -5882,8 +6382,12 @@
       <c r="B167" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="4">
+        <v>5</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E167" s="9">
         <v>3</v>
       </c>
@@ -5898,8 +6402,12 @@
       <c r="B168" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="8"/>
+      <c r="C168" s="4">
+        <v>5</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E168" s="9">
         <v>1</v>
       </c>
@@ -5914,8 +6422,12 @@
       <c r="B169" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="8"/>
+      <c r="C169" s="4">
+        <v>5</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E169" s="9">
         <v>2</v>
       </c>
@@ -5930,8 +6442,12 @@
       <c r="B170" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="4">
+        <v>5</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E170" s="9">
         <v>3</v>
       </c>
@@ -5946,8 +6462,12 @@
       <c r="B171" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C171" s="4"/>
-      <c r="D171" s="8"/>
+      <c r="C171" s="4">
+        <v>5</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E171" s="9">
         <v>4</v>
       </c>
@@ -5962,8 +6482,12 @@
       <c r="B172" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="8"/>
+      <c r="C172" s="4">
+        <v>5</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E172" s="9">
         <v>5</v>
       </c>
@@ -5978,8 +6502,12 @@
       <c r="B173" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="8"/>
+      <c r="C173" s="4">
+        <v>5</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E173" s="9">
         <v>1</v>
       </c>
@@ -5994,8 +6522,12 @@
       <c r="B174" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="4">
+        <v>5</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E174" s="9">
         <v>2</v>
       </c>
@@ -6010,8 +6542,12 @@
       <c r="B175" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="8"/>
+      <c r="C175" s="4">
+        <v>5</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E175" s="9">
         <v>3</v>
       </c>
@@ -6026,8 +6562,12 @@
       <c r="B176" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="8"/>
+      <c r="C176" s="4">
+        <v>5</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E176" s="9">
         <v>4</v>
       </c>
@@ -6042,8 +6582,12 @@
       <c r="B177" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="8"/>
+      <c r="C177" s="4">
+        <v>5</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E177" s="9">
         <v>1</v>
       </c>
@@ -6058,8 +6602,12 @@
       <c r="B178" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="8"/>
+      <c r="C178" s="4">
+        <v>5</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E178" s="9">
         <v>2</v>
       </c>
@@ -6074,8 +6622,12 @@
       <c r="B179" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="8"/>
+      <c r="C179" s="4">
+        <v>5</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E179" s="9">
         <v>3</v>
       </c>
@@ -6090,8 +6642,12 @@
       <c r="B180" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="8"/>
+      <c r="C180" s="4">
+        <v>5</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E180" s="9">
         <v>4</v>
       </c>
@@ -6106,8 +6662,12 @@
       <c r="B181" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="8"/>
+      <c r="C181" s="4">
+        <v>5</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E181" s="9">
         <v>5</v>
       </c>
@@ -6122,8 +6682,12 @@
       <c r="B182" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="8"/>
+      <c r="C182" s="4">
+        <v>5</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E182" s="9">
         <v>1</v>
       </c>
@@ -6138,8 +6702,12 @@
       <c r="B183" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="8"/>
+      <c r="C183" s="4">
+        <v>5</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E183" s="9">
         <v>2</v>
       </c>
@@ -6154,8 +6722,12 @@
       <c r="B184" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="8"/>
+      <c r="C184" s="4">
+        <v>5</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E184" s="9">
         <v>3</v>
       </c>
@@ -6170,8 +6742,12 @@
       <c r="B185" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="8"/>
+      <c r="C185" s="4">
+        <v>5</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E185" s="9">
         <v>1</v>
       </c>
@@ -6186,8 +6762,12 @@
       <c r="B186" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="8"/>
+      <c r="C186" s="4">
+        <v>5</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E186" s="9">
         <v>2</v>
       </c>
@@ -6202,8 +6782,12 @@
       <c r="B187" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="8"/>
+      <c r="C187" s="4">
+        <v>5</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E187" s="9">
         <v>3</v>
       </c>
@@ -6218,8 +6802,12 @@
       <c r="B188" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="8"/>
+      <c r="C188" s="4">
+        <v>5</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E188" s="9">
         <v>4</v>
       </c>
@@ -6234,8 +6822,12 @@
       <c r="B189" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="8"/>
+      <c r="C189" s="4">
+        <v>5</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E189" s="9">
         <v>5</v>
       </c>
@@ -6250,8 +6842,12 @@
       <c r="B190" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="8"/>
+      <c r="C190" s="4">
+        <v>5</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E190" s="9">
         <v>1</v>
       </c>
@@ -6266,8 +6862,12 @@
       <c r="B191" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="8"/>
+      <c r="C191" s="4">
+        <v>5</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E191" s="9">
         <v>2</v>
       </c>
@@ -6282,8 +6882,12 @@
       <c r="B192" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="8"/>
+      <c r="C192" s="4">
+        <v>5</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E192" s="9">
         <v>3</v>
       </c>
@@ -6298,8 +6902,12 @@
       <c r="B193" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="8"/>
+      <c r="C193" s="4">
+        <v>5</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E193" s="9">
         <v>4</v>
       </c>
@@ -6314,8 +6922,12 @@
       <c r="B194" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="8"/>
+      <c r="C194" s="4">
+        <v>5</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E194" s="9">
         <v>1</v>
       </c>
@@ -6330,8 +6942,12 @@
       <c r="B195" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="8"/>
+      <c r="C195" s="4">
+        <v>5</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E195" s="9">
         <v>2</v>
       </c>
@@ -6346,8 +6962,12 @@
       <c r="B196" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="8"/>
+      <c r="C196" s="4">
+        <v>5</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E196" s="9">
         <v>3</v>
       </c>
@@ -6362,8 +6982,12 @@
       <c r="B197" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="8"/>
+      <c r="C197" s="4">
+        <v>5</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E197" s="9">
         <v>4</v>
       </c>
@@ -6378,8 +7002,12 @@
       <c r="B198" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="8"/>
+      <c r="C198" s="4">
+        <v>5</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E198" s="9">
         <v>5</v>
       </c>
@@ -6394,8 +7022,12 @@
       <c r="B199" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="8"/>
+      <c r="C199" s="4">
+        <v>5</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E199" s="9">
         <v>6</v>
       </c>
@@ -6410,8 +7042,12 @@
       <c r="B200" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="8"/>
+      <c r="C200" s="4">
+        <v>5</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E200" s="9">
         <v>7</v>
       </c>
@@ -6426,8 +7062,12 @@
       <c r="B201" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="8"/>
+      <c r="C201" s="4">
+        <v>5</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E201" s="9">
         <v>1</v>
       </c>
@@ -6442,8 +7082,12 @@
       <c r="B202" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="8"/>
+      <c r="C202" s="4">
+        <v>5</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E202" s="9">
         <v>2</v>
       </c>
@@ -6458,8 +7102,12 @@
       <c r="B203" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="8"/>
+      <c r="C203" s="4">
+        <v>5</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E203" s="9">
         <v>3</v>
       </c>
@@ -6474,8 +7122,12 @@
       <c r="B204" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="8"/>
+      <c r="C204" s="4">
+        <v>5</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E204" s="9">
         <v>4</v>
       </c>
@@ -6490,8 +7142,12 @@
       <c r="B205" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="8"/>
+      <c r="C205" s="4">
+        <v>5</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E205" s="9">
         <v>5</v>
       </c>
@@ -6506,8 +7162,12 @@
       <c r="B206" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="8"/>
+      <c r="C206" s="4">
+        <v>5</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E206" s="9">
         <v>6</v>
       </c>
@@ -6515,200 +7175,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F230"/>
+  <autoFilter ref="A1:F206"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6720,7 +7188,7 @@
   <dimension ref="A1:F394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7749,11 +8217,11 @@
       </c>
       <c r="C40" t="str">
         <f>""""&amp;'N4'!C40&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D40" t="str">
         <f>""""&amp;'N4'!D40&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E40" t="str">
         <f>""""&amp;'N4'!E40&amp;""""</f>
@@ -7775,11 +8243,11 @@
       </c>
       <c r="C41" t="str">
         <f>""""&amp;'N4'!C41&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D41" t="str">
         <f>""""&amp;'N4'!D41&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E41" t="str">
         <f>""""&amp;'N4'!E41&amp;""""</f>
@@ -7801,11 +8269,11 @@
       </c>
       <c r="C42" t="str">
         <f>""""&amp;'N4'!C42&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D42" t="str">
         <f>""""&amp;'N4'!D42&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E42" t="str">
         <f>""""&amp;'N4'!E42&amp;""""</f>
@@ -7827,11 +8295,11 @@
       </c>
       <c r="C43" t="str">
         <f>""""&amp;'N4'!C43&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D43" t="str">
         <f>""""&amp;'N4'!D43&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E43" t="str">
         <f>""""&amp;'N4'!E43&amp;""""</f>
@@ -7853,11 +8321,11 @@
       </c>
       <c r="C44" t="str">
         <f>""""&amp;'N4'!C44&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D44" t="str">
         <f>""""&amp;'N4'!D44&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E44" t="str">
         <f>""""&amp;'N4'!E44&amp;""""</f>
@@ -7879,11 +8347,11 @@
       </c>
       <c r="C45" t="str">
         <f>""""&amp;'N4'!C45&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D45" t="str">
         <f>""""&amp;'N4'!D45&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E45" t="str">
         <f>""""&amp;'N4'!E45&amp;""""</f>
@@ -7905,11 +8373,11 @@
       </c>
       <c r="C46" t="str">
         <f>""""&amp;'N4'!C46&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D46" t="str">
         <f>""""&amp;'N4'!D46&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E46" t="str">
         <f>""""&amp;'N4'!E46&amp;""""</f>
@@ -7931,11 +8399,11 @@
       </c>
       <c r="C47" t="str">
         <f>""""&amp;'N4'!C47&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D47" t="str">
         <f>""""&amp;'N4'!D47&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E47" t="str">
         <f>""""&amp;'N4'!E47&amp;""""</f>
@@ -7957,11 +8425,11 @@
       </c>
       <c r="C48" t="str">
         <f>""""&amp;'N4'!C48&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D48" t="str">
         <f>""""&amp;'N4'!D48&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E48" t="str">
         <f>""""&amp;'N4'!E48&amp;""""</f>
@@ -7983,11 +8451,11 @@
       </c>
       <c r="C49" t="str">
         <f>""""&amp;'N4'!C49&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D49" t="str">
         <f>""""&amp;'N4'!D49&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E49" t="str">
         <f>""""&amp;'N4'!E49&amp;""""</f>
@@ -8009,11 +8477,11 @@
       </c>
       <c r="C50" t="str">
         <f>""""&amp;'N4'!C50&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D50" t="str">
         <f>""""&amp;'N4'!D50&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E50" t="str">
         <f>""""&amp;'N4'!E50&amp;""""</f>
@@ -8035,11 +8503,11 @@
       </c>
       <c r="C51" t="str">
         <f>""""&amp;'N4'!C51&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D51" t="str">
         <f>""""&amp;'N4'!D51&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E51" t="str">
         <f>""""&amp;'N4'!E51&amp;""""</f>
@@ -8061,11 +8529,11 @@
       </c>
       <c r="C52" t="str">
         <f>""""&amp;'N4'!C52&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D52" t="str">
         <f>""""&amp;'N4'!D52&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E52" t="str">
         <f>""""&amp;'N4'!E52&amp;""""</f>
@@ -8087,11 +8555,11 @@
       </c>
       <c r="C53" t="str">
         <f>""""&amp;'N4'!C53&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D53" t="str">
         <f>""""&amp;'N4'!D53&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E53" t="str">
         <f>""""&amp;'N4'!E53&amp;""""</f>
@@ -8113,11 +8581,11 @@
       </c>
       <c r="C54" t="str">
         <f>""""&amp;'N4'!C54&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D54" t="str">
         <f>""""&amp;'N4'!D54&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E54" t="str">
         <f>""""&amp;'N4'!E54&amp;""""</f>
@@ -8139,11 +8607,11 @@
       </c>
       <c r="C55" t="str">
         <f>""""&amp;'N4'!C55&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D55" t="str">
         <f>""""&amp;'N4'!D55&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E55" t="str">
         <f>""""&amp;'N4'!E55&amp;""""</f>
@@ -8165,11 +8633,11 @@
       </c>
       <c r="C56" t="str">
         <f>""""&amp;'N4'!C56&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D56" t="str">
         <f>""""&amp;'N4'!D56&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E56" t="str">
         <f>""""&amp;'N4'!E56&amp;""""</f>
@@ -8191,11 +8659,11 @@
       </c>
       <c r="C57" t="str">
         <f>""""&amp;'N4'!C57&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D57" t="str">
         <f>""""&amp;'N4'!D57&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E57" t="str">
         <f>""""&amp;'N4'!E57&amp;""""</f>
@@ -8217,11 +8685,11 @@
       </c>
       <c r="C58" t="str">
         <f>""""&amp;'N4'!C58&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D58" t="str">
         <f>""""&amp;'N4'!D58&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E58" t="str">
         <f>""""&amp;'N4'!E58&amp;""""</f>
@@ -8243,11 +8711,11 @@
       </c>
       <c r="C59" t="str">
         <f>""""&amp;'N4'!C59&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D59" t="str">
         <f>""""&amp;'N4'!D59&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E59" t="str">
         <f>""""&amp;'N4'!E59&amp;""""</f>
@@ -8269,11 +8737,11 @@
       </c>
       <c r="C60" t="str">
         <f>""""&amp;'N4'!C60&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D60" t="str">
         <f>""""&amp;'N4'!D60&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E60" t="str">
         <f>""""&amp;'N4'!E60&amp;""""</f>
@@ -8295,11 +8763,11 @@
       </c>
       <c r="C61" t="str">
         <f>""""&amp;'N4'!C61&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D61" t="str">
         <f>""""&amp;'N4'!D61&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E61" t="str">
         <f>""""&amp;'N4'!E61&amp;""""</f>
@@ -8321,11 +8789,11 @@
       </c>
       <c r="C62" t="str">
         <f>""""&amp;'N4'!C62&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D62" t="str">
         <f>""""&amp;'N4'!D62&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E62" t="str">
         <f>""""&amp;'N4'!E62&amp;""""</f>
@@ -8347,11 +8815,11 @@
       </c>
       <c r="C63" t="str">
         <f>""""&amp;'N4'!C63&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D63" t="str">
         <f>""""&amp;'N4'!D63&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E63" t="str">
         <f>""""&amp;'N4'!E63&amp;""""</f>
@@ -8373,11 +8841,11 @@
       </c>
       <c r="C64" t="str">
         <f>""""&amp;'N4'!C64&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D64" t="str">
         <f>""""&amp;'N4'!D64&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E64" t="str">
         <f>""""&amp;'N4'!E64&amp;""""</f>
@@ -8399,11 +8867,11 @@
       </c>
       <c r="C65" t="str">
         <f>""""&amp;'N4'!C65&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D65" t="str">
         <f>""""&amp;'N4'!D65&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E65" t="str">
         <f>""""&amp;'N4'!E65&amp;""""</f>
@@ -8425,11 +8893,11 @@
       </c>
       <c r="C66" t="str">
         <f>""""&amp;'N4'!C66&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D66" t="str">
         <f>""""&amp;'N4'!D66&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E66" t="str">
         <f>""""&amp;'N4'!E66&amp;""""</f>
@@ -8451,11 +8919,11 @@
       </c>
       <c r="C67" t="str">
         <f>""""&amp;'N4'!C67&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D67" t="str">
         <f>""""&amp;'N4'!D67&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E67" t="str">
         <f>""""&amp;'N4'!E67&amp;""""</f>
@@ -8477,11 +8945,11 @@
       </c>
       <c r="C68" t="str">
         <f>""""&amp;'N4'!C68&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D68" t="str">
         <f>""""&amp;'N4'!D68&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E68" t="str">
         <f>""""&amp;'N4'!E68&amp;""""</f>
@@ -8503,11 +8971,11 @@
       </c>
       <c r="C69" t="str">
         <f>""""&amp;'N4'!C69&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D69" t="str">
         <f>""""&amp;'N4'!D69&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E69" t="str">
         <f>""""&amp;'N4'!E69&amp;""""</f>
@@ -8529,11 +8997,11 @@
       </c>
       <c r="C70" t="str">
         <f>""""&amp;'N4'!C70&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D70" t="str">
         <f>""""&amp;'N4'!D70&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E70" t="str">
         <f>""""&amp;'N4'!E70&amp;""""</f>
@@ -8555,11 +9023,11 @@
       </c>
       <c r="C71" t="str">
         <f>""""&amp;'N4'!C71&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D71" t="str">
         <f>""""&amp;'N4'!D71&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E71" t="str">
         <f>""""&amp;'N4'!E71&amp;""""</f>
@@ -8581,11 +9049,11 @@
       </c>
       <c r="C72" t="str">
         <f>""""&amp;'N4'!C72&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D72" t="str">
         <f>""""&amp;'N4'!D72&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E72" t="str">
         <f>""""&amp;'N4'!E72&amp;""""</f>
@@ -8607,11 +9075,11 @@
       </c>
       <c r="C73" t="str">
         <f>""""&amp;'N4'!C73&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D73" t="str">
         <f>""""&amp;'N4'!D73&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E73" t="str">
         <f>""""&amp;'N4'!E73&amp;""""</f>
@@ -8633,11 +9101,11 @@
       </c>
       <c r="C74" t="str">
         <f>""""&amp;'N4'!C74&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D74" t="str">
         <f>""""&amp;'N4'!D74&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E74" t="str">
         <f>""""&amp;'N4'!E74&amp;""""</f>
@@ -8659,11 +9127,11 @@
       </c>
       <c r="C75" t="str">
         <f>""""&amp;'N4'!C75&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D75" t="str">
         <f>""""&amp;'N4'!D75&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E75" t="str">
         <f>""""&amp;'N4'!E75&amp;""""</f>
@@ -8685,11 +9153,11 @@
       </c>
       <c r="C76" t="str">
         <f>""""&amp;'N4'!C76&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D76" t="str">
         <f>""""&amp;'N4'!D76&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E76" t="str">
         <f>""""&amp;'N4'!E76&amp;""""</f>
@@ -8711,11 +9179,11 @@
       </c>
       <c r="C77" t="str">
         <f>""""&amp;'N4'!C77&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D77" t="str">
         <f>""""&amp;'N4'!D77&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E77" t="str">
         <f>""""&amp;'N4'!E77&amp;""""</f>
@@ -8737,11 +9205,11 @@
       </c>
       <c r="C78" t="str">
         <f>""""&amp;'N4'!C78&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D78" t="str">
         <f>""""&amp;'N4'!D78&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E78" t="str">
         <f>""""&amp;'N4'!E78&amp;""""</f>
@@ -8763,11 +9231,11 @@
       </c>
       <c r="C79" t="str">
         <f>""""&amp;'N4'!C79&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D79" t="str">
         <f>""""&amp;'N4'!D79&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E79" t="str">
         <f>""""&amp;'N4'!E79&amp;""""</f>
@@ -8789,11 +9257,11 @@
       </c>
       <c r="C80" t="str">
         <f>""""&amp;'N4'!C80&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D80" t="str">
         <f>""""&amp;'N4'!D80&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E80" t="str">
         <f>""""&amp;'N4'!E80&amp;""""</f>
@@ -8815,11 +9283,11 @@
       </c>
       <c r="C81" t="str">
         <f>""""&amp;'N4'!C81&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D81" t="str">
         <f>""""&amp;'N4'!D81&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E81" t="str">
         <f>""""&amp;'N4'!E81&amp;""""</f>
@@ -8841,11 +9309,11 @@
       </c>
       <c r="C82" t="str">
         <f>""""&amp;'N4'!C82&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D82" t="str">
         <f>""""&amp;'N4'!D82&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E82" t="str">
         <f>""""&amp;'N4'!E82&amp;""""</f>
@@ -8867,11 +9335,11 @@
       </c>
       <c r="C83" t="str">
         <f>""""&amp;'N4'!C83&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D83" t="str">
         <f>""""&amp;'N4'!D83&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E83" t="str">
         <f>""""&amp;'N4'!E83&amp;""""</f>
@@ -8893,11 +9361,11 @@
       </c>
       <c r="C84" t="str">
         <f>""""&amp;'N4'!C84&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D84" t="str">
         <f>""""&amp;'N4'!D84&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E84" t="str">
         <f>""""&amp;'N4'!E84&amp;""""</f>
@@ -8919,11 +9387,11 @@
       </c>
       <c r="C85" t="str">
         <f>""""&amp;'N4'!C85&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D85" t="str">
         <f>""""&amp;'N4'!D85&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E85" t="str">
         <f>""""&amp;'N4'!E85&amp;""""</f>
@@ -8945,11 +9413,11 @@
       </c>
       <c r="C86" t="str">
         <f>""""&amp;'N4'!C86&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D86" t="str">
         <f>""""&amp;'N4'!D86&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E86" t="str">
         <f>""""&amp;'N4'!E86&amp;""""</f>
@@ -8971,11 +9439,11 @@
       </c>
       <c r="C87" t="str">
         <f>""""&amp;'N4'!C87&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D87" t="str">
         <f>""""&amp;'N4'!D87&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E87" t="str">
         <f>""""&amp;'N4'!E87&amp;""""</f>
@@ -8997,11 +9465,11 @@
       </c>
       <c r="C88" t="str">
         <f>""""&amp;'N4'!C88&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D88" t="str">
         <f>""""&amp;'N4'!D88&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E88" t="str">
         <f>""""&amp;'N4'!E88&amp;""""</f>
@@ -9023,11 +9491,11 @@
       </c>
       <c r="C89" t="str">
         <f>""""&amp;'N4'!C89&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D89" t="str">
         <f>""""&amp;'N4'!D89&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E89" t="str">
         <f>""""&amp;'N4'!E89&amp;""""</f>
@@ -9049,11 +9517,11 @@
       </c>
       <c r="C90" t="str">
         <f>""""&amp;'N4'!C90&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D90" t="str">
         <f>""""&amp;'N4'!D90&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E90" t="str">
         <f>""""&amp;'N4'!E90&amp;""""</f>
@@ -9075,11 +9543,11 @@
       </c>
       <c r="C91" t="str">
         <f>""""&amp;'N4'!C91&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D91" t="str">
         <f>""""&amp;'N4'!D91&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E91" t="str">
         <f>""""&amp;'N4'!E91&amp;""""</f>
@@ -9101,11 +9569,11 @@
       </c>
       <c r="C92" t="str">
         <f>""""&amp;'N4'!C92&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D92" t="str">
         <f>""""&amp;'N4'!D92&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E92" t="str">
         <f>""""&amp;'N4'!E92&amp;""""</f>
@@ -9127,11 +9595,11 @@
       </c>
       <c r="C93" t="str">
         <f>""""&amp;'N4'!C93&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D93" t="str">
         <f>""""&amp;'N4'!D93&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E93" t="str">
         <f>""""&amp;'N4'!E93&amp;""""</f>
@@ -9153,11 +9621,11 @@
       </c>
       <c r="C94" t="str">
         <f>""""&amp;'N4'!C94&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D94" t="str">
         <f>""""&amp;'N4'!D94&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E94" t="str">
         <f>""""&amp;'N4'!E94&amp;""""</f>
@@ -9179,11 +9647,11 @@
       </c>
       <c r="C95" t="str">
         <f>""""&amp;'N4'!C95&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D95" t="str">
         <f>""""&amp;'N4'!D95&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E95" t="str">
         <f>""""&amp;'N4'!E95&amp;""""</f>
@@ -9205,11 +9673,11 @@
       </c>
       <c r="C96" t="str">
         <f>""""&amp;'N4'!C96&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D96" t="str">
         <f>""""&amp;'N4'!D96&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E96" t="str">
         <f>""""&amp;'N4'!E96&amp;""""</f>
@@ -9231,11 +9699,11 @@
       </c>
       <c r="C97" t="str">
         <f>""""&amp;'N4'!C97&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D97" t="str">
         <f>""""&amp;'N4'!D97&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E97" t="str">
         <f>""""&amp;'N4'!E97&amp;""""</f>
@@ -9257,11 +9725,11 @@
       </c>
       <c r="C98" t="str">
         <f>""""&amp;'N4'!C98&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D98" t="str">
         <f>""""&amp;'N4'!D98&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E98" t="str">
         <f>""""&amp;'N4'!E98&amp;""""</f>
@@ -9283,11 +9751,11 @@
       </c>
       <c r="C99" t="str">
         <f>""""&amp;'N4'!C99&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D99" t="str">
         <f>""""&amp;'N4'!D99&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E99" t="str">
         <f>""""&amp;'N4'!E99&amp;""""</f>
@@ -9309,11 +9777,11 @@
       </c>
       <c r="C100" t="str">
         <f>""""&amp;'N4'!C100&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D100" t="str">
         <f>""""&amp;'N4'!D100&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E100" t="str">
         <f>""""&amp;'N4'!E100&amp;""""</f>
@@ -9335,11 +9803,11 @@
       </c>
       <c r="C101" t="str">
         <f>""""&amp;'N4'!C101&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D101" t="str">
         <f>""""&amp;'N4'!D101&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E101" t="str">
         <f>""""&amp;'N4'!E101&amp;""""</f>
@@ -9361,11 +9829,11 @@
       </c>
       <c r="C102" t="str">
         <f>""""&amp;'N4'!C102&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D102" t="str">
         <f>""""&amp;'N4'!D102&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E102" t="str">
         <f>""""&amp;'N4'!E102&amp;""""</f>
@@ -9387,11 +9855,11 @@
       </c>
       <c r="C103" t="str">
         <f>""""&amp;'N4'!C103&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D103" t="str">
         <f>""""&amp;'N4'!D103&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E103" t="str">
         <f>""""&amp;'N4'!E103&amp;""""</f>
@@ -9413,11 +9881,11 @@
       </c>
       <c r="C104" t="str">
         <f>""""&amp;'N4'!C104&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D104" t="str">
         <f>""""&amp;'N4'!D104&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E104" t="str">
         <f>""""&amp;'N4'!E104&amp;""""</f>
@@ -9439,11 +9907,11 @@
       </c>
       <c r="C105" t="str">
         <f>""""&amp;'N4'!C105&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D105" t="str">
         <f>""""&amp;'N4'!D105&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E105" t="str">
         <f>""""&amp;'N4'!E105&amp;""""</f>
@@ -9465,11 +9933,11 @@
       </c>
       <c r="C106" t="str">
         <f>""""&amp;'N4'!C106&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D106" t="str">
         <f>""""&amp;'N4'!D106&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E106" t="str">
         <f>""""&amp;'N4'!E106&amp;""""</f>
@@ -9491,11 +9959,11 @@
       </c>
       <c r="C107" t="str">
         <f>""""&amp;'N4'!C107&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D107" t="str">
         <f>""""&amp;'N4'!D107&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E107" t="str">
         <f>""""&amp;'N4'!E107&amp;""""</f>
@@ -9517,11 +9985,11 @@
       </c>
       <c r="C108" t="str">
         <f>""""&amp;'N4'!C108&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D108" t="str">
         <f>""""&amp;'N4'!D108&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E108" t="str">
         <f>""""&amp;'N4'!E108&amp;""""</f>
@@ -9543,11 +10011,11 @@
       </c>
       <c r="C109" t="str">
         <f>""""&amp;'N4'!C109&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D109" t="str">
         <f>""""&amp;'N4'!D109&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E109" t="str">
         <f>""""&amp;'N4'!E109&amp;""""</f>
@@ -9569,11 +10037,11 @@
       </c>
       <c r="C110" t="str">
         <f>""""&amp;'N4'!C110&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D110" t="str">
         <f>""""&amp;'N4'!D110&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E110" t="str">
         <f>""""&amp;'N4'!E110&amp;""""</f>
@@ -9595,11 +10063,11 @@
       </c>
       <c r="C111" t="str">
         <f>""""&amp;'N4'!C111&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D111" t="str">
         <f>""""&amp;'N4'!D111&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E111" t="str">
         <f>""""&amp;'N4'!E111&amp;""""</f>
@@ -9621,11 +10089,11 @@
       </c>
       <c r="C112" t="str">
         <f>""""&amp;'N4'!C112&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D112" t="str">
         <f>""""&amp;'N4'!D112&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E112" t="str">
         <f>""""&amp;'N4'!E112&amp;""""</f>
@@ -9647,11 +10115,11 @@
       </c>
       <c r="C113" t="str">
         <f>""""&amp;'N4'!C113&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D113" t="str">
         <f>""""&amp;'N4'!D113&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E113" t="str">
         <f>""""&amp;'N4'!E113&amp;""""</f>
@@ -9673,11 +10141,11 @@
       </c>
       <c r="C114" t="str">
         <f>""""&amp;'N4'!C114&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D114" t="str">
         <f>""""&amp;'N4'!D114&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E114" t="str">
         <f>""""&amp;'N4'!E114&amp;""""</f>
@@ -9699,11 +10167,11 @@
       </c>
       <c r="C115" t="str">
         <f>""""&amp;'N4'!C115&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D115" t="str">
         <f>""""&amp;'N4'!D115&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E115" t="str">
         <f>""""&amp;'N4'!E115&amp;""""</f>
@@ -9725,11 +10193,11 @@
       </c>
       <c r="C116" t="str">
         <f>""""&amp;'N4'!C116&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D116" t="str">
         <f>""""&amp;'N4'!D116&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E116" t="str">
         <f>""""&amp;'N4'!E116&amp;""""</f>
@@ -9751,11 +10219,11 @@
       </c>
       <c r="C117" t="str">
         <f>""""&amp;'N4'!C117&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D117" t="str">
         <f>""""&amp;'N4'!D117&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E117" t="str">
         <f>""""&amp;'N4'!E117&amp;""""</f>
@@ -9777,11 +10245,11 @@
       </c>
       <c r="C118" t="str">
         <f>""""&amp;'N4'!C118&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D118" t="str">
         <f>""""&amp;'N4'!D118&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E118" t="str">
         <f>""""&amp;'N4'!E118&amp;""""</f>
@@ -9803,11 +10271,11 @@
       </c>
       <c r="C119" t="str">
         <f>""""&amp;'N4'!C119&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D119" t="str">
         <f>""""&amp;'N4'!D119&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E119" t="str">
         <f>""""&amp;'N4'!E119&amp;""""</f>
@@ -9829,11 +10297,11 @@
       </c>
       <c r="C120" t="str">
         <f>""""&amp;'N4'!C120&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D120" t="str">
         <f>""""&amp;'N4'!D120&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E120" t="str">
         <f>""""&amp;'N4'!E120&amp;""""</f>
@@ -9855,11 +10323,11 @@
       </c>
       <c r="C121" t="str">
         <f>""""&amp;'N4'!C121&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D121" t="str">
         <f>""""&amp;'N4'!D121&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E121" t="str">
         <f>""""&amp;'N4'!E121&amp;""""</f>
@@ -9881,11 +10349,11 @@
       </c>
       <c r="C122" t="str">
         <f>""""&amp;'N4'!C122&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D122" t="str">
         <f>""""&amp;'N4'!D122&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E122" t="str">
         <f>""""&amp;'N4'!E122&amp;""""</f>
@@ -9907,11 +10375,11 @@
       </c>
       <c r="C123" t="str">
         <f>""""&amp;'N4'!C123&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D123" t="str">
         <f>""""&amp;'N4'!D123&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E123" t="str">
         <f>""""&amp;'N4'!E123&amp;""""</f>
@@ -9933,11 +10401,11 @@
       </c>
       <c r="C124" t="str">
         <f>""""&amp;'N4'!C124&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D124" t="str">
         <f>""""&amp;'N4'!D124&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E124" t="str">
         <f>""""&amp;'N4'!E124&amp;""""</f>
@@ -9959,11 +10427,11 @@
       </c>
       <c r="C125" t="str">
         <f>""""&amp;'N4'!C125&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D125" t="str">
         <f>""""&amp;'N4'!D125&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E125" t="str">
         <f>""""&amp;'N4'!E125&amp;""""</f>
@@ -9985,11 +10453,11 @@
       </c>
       <c r="C126" t="str">
         <f>""""&amp;'N4'!C126&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D126" t="str">
         <f>""""&amp;'N4'!D126&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E126" t="str">
         <f>""""&amp;'N4'!E126&amp;""""</f>
@@ -10011,11 +10479,11 @@
       </c>
       <c r="C127" t="str">
         <f>""""&amp;'N4'!C127&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D127" t="str">
         <f>""""&amp;'N4'!D127&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E127" t="str">
         <f>""""&amp;'N4'!E127&amp;""""</f>
@@ -10037,11 +10505,11 @@
       </c>
       <c r="C128" t="str">
         <f>""""&amp;'N4'!C128&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D128" t="str">
         <f>""""&amp;'N4'!D128&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E128" t="str">
         <f>""""&amp;'N4'!E128&amp;""""</f>
@@ -10063,11 +10531,11 @@
       </c>
       <c r="C129" t="str">
         <f>""""&amp;'N4'!C129&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D129" t="str">
         <f>""""&amp;'N4'!D129&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E129" t="str">
         <f>""""&amp;'N4'!E129&amp;""""</f>
@@ -10089,11 +10557,11 @@
       </c>
       <c r="C130" t="str">
         <f>""""&amp;'N4'!C130&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D130" t="str">
         <f>""""&amp;'N4'!D130&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E130" t="str">
         <f>""""&amp;'N4'!E130&amp;""""</f>
@@ -10115,11 +10583,11 @@
       </c>
       <c r="C131" t="str">
         <f>""""&amp;'N4'!C131&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D131" t="str">
         <f>""""&amp;'N4'!D131&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E131" t="str">
         <f>""""&amp;'N4'!E131&amp;""""</f>
@@ -10141,11 +10609,11 @@
       </c>
       <c r="C132" t="str">
         <f>""""&amp;'N4'!C132&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D132" t="str">
         <f>""""&amp;'N4'!D132&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E132" t="str">
         <f>""""&amp;'N4'!E132&amp;""""</f>
@@ -10167,11 +10635,11 @@
       </c>
       <c r="C133" t="str">
         <f>""""&amp;'N4'!C133&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D133" t="str">
         <f>""""&amp;'N4'!D133&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E133" t="str">
         <f>""""&amp;'N4'!E133&amp;""""</f>
@@ -10193,11 +10661,11 @@
       </c>
       <c r="C134" t="str">
         <f>""""&amp;'N4'!C134&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D134" t="str">
         <f>""""&amp;'N4'!D134&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E134" t="str">
         <f>""""&amp;'N4'!E134&amp;""""</f>
@@ -10219,11 +10687,11 @@
       </c>
       <c r="C135" t="str">
         <f>""""&amp;'N4'!C135&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D135" t="str">
         <f>""""&amp;'N4'!D135&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E135" t="str">
         <f>""""&amp;'N4'!E135&amp;""""</f>
@@ -10245,11 +10713,11 @@
       </c>
       <c r="C136" t="str">
         <f>""""&amp;'N4'!C136&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D136" t="str">
         <f>""""&amp;'N4'!D136&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E136" t="str">
         <f>""""&amp;'N4'!E136&amp;""""</f>
@@ -10271,11 +10739,11 @@
       </c>
       <c r="C137" t="str">
         <f>""""&amp;'N4'!C137&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D137" t="str">
         <f>""""&amp;'N4'!D137&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E137" t="str">
         <f>""""&amp;'N4'!E137&amp;""""</f>
@@ -10297,11 +10765,11 @@
       </c>
       <c r="C138" t="str">
         <f>""""&amp;'N4'!C138&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D138" t="str">
         <f>""""&amp;'N4'!D138&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E138" t="str">
         <f>""""&amp;'N4'!E138&amp;""""</f>
@@ -10323,11 +10791,11 @@
       </c>
       <c r="C139" t="str">
         <f>""""&amp;'N4'!C139&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D139" t="str">
         <f>""""&amp;'N4'!D139&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E139" t="str">
         <f>""""&amp;'N4'!E139&amp;""""</f>
@@ -10349,11 +10817,11 @@
       </c>
       <c r="C140" t="str">
         <f>""""&amp;'N4'!C140&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D140" t="str">
         <f>""""&amp;'N4'!D140&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E140" t="str">
         <f>""""&amp;'N4'!E140&amp;""""</f>
@@ -10375,11 +10843,11 @@
       </c>
       <c r="C141" t="str">
         <f>""""&amp;'N4'!C141&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D141" t="str">
         <f>""""&amp;'N4'!D141&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E141" t="str">
         <f>""""&amp;'N4'!E141&amp;""""</f>
@@ -10401,11 +10869,11 @@
       </c>
       <c r="C142" t="str">
         <f>""""&amp;'N4'!C142&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D142" t="str">
         <f>""""&amp;'N4'!D142&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E142" t="str">
         <f>""""&amp;'N4'!E142&amp;""""</f>
@@ -10427,11 +10895,11 @@
       </c>
       <c r="C143" t="str">
         <f>""""&amp;'N4'!C143&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D143" t="str">
         <f>""""&amp;'N4'!D143&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E143" t="str">
         <f>""""&amp;'N4'!E143&amp;""""</f>
@@ -10453,11 +10921,11 @@
       </c>
       <c r="C144" t="str">
         <f>""""&amp;'N4'!C144&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D144" t="str">
         <f>""""&amp;'N4'!D144&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E144" t="str">
         <f>""""&amp;'N4'!E144&amp;""""</f>
@@ -10479,11 +10947,11 @@
       </c>
       <c r="C145" t="str">
         <f>""""&amp;'N4'!C145&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D145" t="str">
         <f>""""&amp;'N4'!D145&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E145" t="str">
         <f>""""&amp;'N4'!E145&amp;""""</f>
@@ -10505,11 +10973,11 @@
       </c>
       <c r="C146" t="str">
         <f>""""&amp;'N4'!C146&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D146" t="str">
         <f>""""&amp;'N4'!D146&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E146" t="str">
         <f>""""&amp;'N4'!E146&amp;""""</f>
@@ -10531,11 +10999,11 @@
       </c>
       <c r="C147" t="str">
         <f>""""&amp;'N4'!C147&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D147" t="str">
         <f>""""&amp;'N4'!D147&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E147" t="str">
         <f>""""&amp;'N4'!E147&amp;""""</f>
@@ -10557,11 +11025,11 @@
       </c>
       <c r="C148" t="str">
         <f>""""&amp;'N4'!C148&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D148" t="str">
         <f>""""&amp;'N4'!D148&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E148" t="str">
         <f>""""&amp;'N4'!E148&amp;""""</f>
@@ -10583,11 +11051,11 @@
       </c>
       <c r="C149" t="str">
         <f>""""&amp;'N4'!C149&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D149" t="str">
         <f>""""&amp;'N4'!D149&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E149" t="str">
         <f>""""&amp;'N4'!E149&amp;""""</f>
@@ -10609,11 +11077,11 @@
       </c>
       <c r="C150" t="str">
         <f>""""&amp;'N4'!C150&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D150" t="str">
         <f>""""&amp;'N4'!D150&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E150" t="str">
         <f>""""&amp;'N4'!E150&amp;""""</f>
@@ -10635,11 +11103,11 @@
       </c>
       <c r="C151" t="str">
         <f>""""&amp;'N4'!C151&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D151" t="str">
         <f>""""&amp;'N4'!D151&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E151" t="str">
         <f>""""&amp;'N4'!E151&amp;""""</f>
@@ -10661,11 +11129,11 @@
       </c>
       <c r="C152" t="str">
         <f>""""&amp;'N4'!C152&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D152" t="str">
         <f>""""&amp;'N4'!D152&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E152" t="str">
         <f>""""&amp;'N4'!E152&amp;""""</f>
@@ -10687,11 +11155,11 @@
       </c>
       <c r="C153" t="str">
         <f>""""&amp;'N4'!C153&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D153" t="str">
         <f>""""&amp;'N4'!D153&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E153" t="str">
         <f>""""&amp;'N4'!E153&amp;""""</f>
@@ -10713,11 +11181,11 @@
       </c>
       <c r="C154" t="str">
         <f>""""&amp;'N4'!C154&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D154" t="str">
         <f>""""&amp;'N4'!D154&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E154" t="str">
         <f>""""&amp;'N4'!E154&amp;""""</f>
@@ -10739,11 +11207,11 @@
       </c>
       <c r="C155" t="str">
         <f>""""&amp;'N4'!C155&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D155" t="str">
         <f>""""&amp;'N4'!D155&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E155" t="str">
         <f>""""&amp;'N4'!E155&amp;""""</f>
@@ -10765,11 +11233,11 @@
       </c>
       <c r="C156" t="str">
         <f>""""&amp;'N4'!C156&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D156" t="str">
         <f>""""&amp;'N4'!D156&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E156" t="str">
         <f>""""&amp;'N4'!E156&amp;""""</f>
@@ -10791,11 +11259,11 @@
       </c>
       <c r="C157" t="str">
         <f>""""&amp;'N4'!C157&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D157" t="str">
         <f>""""&amp;'N4'!D157&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E157" t="str">
         <f>""""&amp;'N4'!E157&amp;""""</f>
@@ -10817,11 +11285,11 @@
       </c>
       <c r="C158" t="str">
         <f>""""&amp;'N4'!C158&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D158" t="str">
         <f>""""&amp;'N4'!D158&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E158" t="str">
         <f>""""&amp;'N4'!E158&amp;""""</f>
@@ -10843,11 +11311,11 @@
       </c>
       <c r="C159" t="str">
         <f>""""&amp;'N4'!C159&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D159" t="str">
         <f>""""&amp;'N4'!D159&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E159" t="str">
         <f>""""&amp;'N4'!E159&amp;""""</f>
@@ -10869,11 +11337,11 @@
       </c>
       <c r="C160" t="str">
         <f>""""&amp;'N4'!C160&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D160" t="str">
         <f>""""&amp;'N4'!D160&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E160" t="str">
         <f>""""&amp;'N4'!E160&amp;""""</f>
@@ -10895,11 +11363,11 @@
       </c>
       <c r="C161" t="str">
         <f>""""&amp;'N4'!C161&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D161" t="str">
         <f>""""&amp;'N4'!D161&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E161" t="str">
         <f>""""&amp;'N4'!E161&amp;""""</f>
@@ -10921,11 +11389,11 @@
       </c>
       <c r="C162" t="str">
         <f>""""&amp;'N4'!C162&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D162" t="str">
         <f>""""&amp;'N4'!D162&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E162" t="str">
         <f>""""&amp;'N4'!E162&amp;""""</f>
@@ -10947,11 +11415,11 @@
       </c>
       <c r="C163" t="str">
         <f>""""&amp;'N4'!C163&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D163" t="str">
         <f>""""&amp;'N4'!D163&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E163" t="str">
         <f>""""&amp;'N4'!E163&amp;""""</f>
@@ -10973,11 +11441,11 @@
       </c>
       <c r="C164" t="str">
         <f>""""&amp;'N4'!C164&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D164" t="str">
         <f>""""&amp;'N4'!D164&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E164" t="str">
         <f>""""&amp;'N4'!E164&amp;""""</f>
@@ -10999,11 +11467,11 @@
       </c>
       <c r="C165" t="str">
         <f>""""&amp;'N4'!C165&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D165" t="str">
         <f>""""&amp;'N4'!D165&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E165" t="str">
         <f>""""&amp;'N4'!E165&amp;""""</f>
@@ -11025,11 +11493,11 @@
       </c>
       <c r="C166" t="str">
         <f>""""&amp;'N4'!C166&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D166" t="str">
         <f>""""&amp;'N4'!D166&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E166" t="str">
         <f>""""&amp;'N4'!E166&amp;""""</f>
@@ -11051,11 +11519,11 @@
       </c>
       <c r="C167" t="str">
         <f>""""&amp;'N4'!C167&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D167" t="str">
         <f>""""&amp;'N4'!D167&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E167" t="str">
         <f>""""&amp;'N4'!E167&amp;""""</f>
@@ -11077,11 +11545,11 @@
       </c>
       <c r="C168" t="str">
         <f>""""&amp;'N4'!C168&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D168" t="str">
         <f>""""&amp;'N4'!D168&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E168" t="str">
         <f>""""&amp;'N4'!E168&amp;""""</f>
@@ -11103,11 +11571,11 @@
       </c>
       <c r="C169" t="str">
         <f>""""&amp;'N4'!C169&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D169" t="str">
         <f>""""&amp;'N4'!D169&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E169" t="str">
         <f>""""&amp;'N4'!E169&amp;""""</f>
@@ -11129,11 +11597,11 @@
       </c>
       <c r="C170" t="str">
         <f>""""&amp;'N4'!C170&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D170" t="str">
         <f>""""&amp;'N4'!D170&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E170" t="str">
         <f>""""&amp;'N4'!E170&amp;""""</f>
@@ -11155,11 +11623,11 @@
       </c>
       <c r="C171" t="str">
         <f>""""&amp;'N4'!C171&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D171" t="str">
         <f>""""&amp;'N4'!D171&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E171" t="str">
         <f>""""&amp;'N4'!E171&amp;""""</f>
@@ -11181,11 +11649,11 @@
       </c>
       <c r="C172" t="str">
         <f>""""&amp;'N4'!C172&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D172" t="str">
         <f>""""&amp;'N4'!D172&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E172" t="str">
         <f>""""&amp;'N4'!E172&amp;""""</f>
@@ -11207,11 +11675,11 @@
       </c>
       <c r="C173" t="str">
         <f>""""&amp;'N4'!C173&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D173" t="str">
         <f>""""&amp;'N4'!D173&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E173" t="str">
         <f>""""&amp;'N4'!E173&amp;""""</f>
@@ -11233,11 +11701,11 @@
       </c>
       <c r="C174" t="str">
         <f>""""&amp;'N4'!C174&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D174" t="str">
         <f>""""&amp;'N4'!D174&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E174" t="str">
         <f>""""&amp;'N4'!E174&amp;""""</f>
@@ -11259,11 +11727,11 @@
       </c>
       <c r="C175" t="str">
         <f>""""&amp;'N4'!C175&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D175" t="str">
         <f>""""&amp;'N4'!D175&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E175" t="str">
         <f>""""&amp;'N4'!E175&amp;""""</f>
@@ -11285,11 +11753,11 @@
       </c>
       <c r="C176" t="str">
         <f>""""&amp;'N4'!C176&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D176" t="str">
         <f>""""&amp;'N4'!D176&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E176" t="str">
         <f>""""&amp;'N4'!E176&amp;""""</f>
@@ -11311,11 +11779,11 @@
       </c>
       <c r="C177" t="str">
         <f>""""&amp;'N4'!C177&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D177" t="str">
         <f>""""&amp;'N4'!D177&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E177" t="str">
         <f>""""&amp;'N4'!E177&amp;""""</f>
@@ -11337,11 +11805,11 @@
       </c>
       <c r="C178" t="str">
         <f>""""&amp;'N4'!C178&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D178" t="str">
         <f>""""&amp;'N4'!D178&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E178" t="str">
         <f>""""&amp;'N4'!E178&amp;""""</f>
@@ -11363,11 +11831,11 @@
       </c>
       <c r="C179" t="str">
         <f>""""&amp;'N4'!C179&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D179" t="str">
         <f>""""&amp;'N4'!D179&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E179" t="str">
         <f>""""&amp;'N4'!E179&amp;""""</f>
@@ -11389,11 +11857,11 @@
       </c>
       <c r="C180" t="str">
         <f>""""&amp;'N4'!C180&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D180" t="str">
         <f>""""&amp;'N4'!D180&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E180" t="str">
         <f>""""&amp;'N4'!E180&amp;""""</f>
@@ -11415,11 +11883,11 @@
       </c>
       <c r="C181" t="str">
         <f>""""&amp;'N4'!C181&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D181" t="str">
         <f>""""&amp;'N4'!D181&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E181" t="str">
         <f>""""&amp;'N4'!E181&amp;""""</f>
@@ -11441,11 +11909,11 @@
       </c>
       <c r="C182" t="str">
         <f>""""&amp;'N4'!C182&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D182" t="str">
         <f>""""&amp;'N4'!D182&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E182" t="str">
         <f>""""&amp;'N4'!E182&amp;""""</f>
@@ -11467,11 +11935,11 @@
       </c>
       <c r="C183" t="str">
         <f>""""&amp;'N4'!C183&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D183" t="str">
         <f>""""&amp;'N4'!D183&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E183" t="str">
         <f>""""&amp;'N4'!E183&amp;""""</f>
@@ -11493,11 +11961,11 @@
       </c>
       <c r="C184" t="str">
         <f>""""&amp;'N4'!C184&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D184" t="str">
         <f>""""&amp;'N4'!D184&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E184" t="str">
         <f>""""&amp;'N4'!E184&amp;""""</f>
@@ -11519,11 +11987,11 @@
       </c>
       <c r="C185" t="str">
         <f>""""&amp;'N4'!C185&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D185" t="str">
         <f>""""&amp;'N4'!D185&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E185" t="str">
         <f>""""&amp;'N4'!E185&amp;""""</f>
@@ -11545,11 +12013,11 @@
       </c>
       <c r="C186" t="str">
         <f>""""&amp;'N4'!C186&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D186" t="str">
         <f>""""&amp;'N4'!D186&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E186" t="str">
         <f>""""&amp;'N4'!E186&amp;""""</f>
@@ -11571,11 +12039,11 @@
       </c>
       <c r="C187" t="str">
         <f>""""&amp;'N4'!C187&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D187" t="str">
         <f>""""&amp;'N4'!D187&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E187" t="str">
         <f>""""&amp;'N4'!E187&amp;""""</f>
@@ -11597,11 +12065,11 @@
       </c>
       <c r="C188" t="str">
         <f>""""&amp;'N4'!C188&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D188" t="str">
         <f>""""&amp;'N4'!D188&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E188" t="str">
         <f>""""&amp;'N4'!E188&amp;""""</f>
@@ -11623,11 +12091,11 @@
       </c>
       <c r="C189" t="str">
         <f>""""&amp;'N4'!C189&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D189" t="str">
         <f>""""&amp;'N4'!D189&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E189" t="str">
         <f>""""&amp;'N4'!E189&amp;""""</f>
@@ -11649,11 +12117,11 @@
       </c>
       <c r="C190" t="str">
         <f>""""&amp;'N4'!C190&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D190" t="str">
         <f>""""&amp;'N4'!D190&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E190" t="str">
         <f>""""&amp;'N4'!E190&amp;""""</f>
@@ -11675,11 +12143,11 @@
       </c>
       <c r="C191" t="str">
         <f>""""&amp;'N4'!C191&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D191" t="str">
         <f>""""&amp;'N4'!D191&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E191" t="str">
         <f>""""&amp;'N4'!E191&amp;""""</f>
@@ -11701,11 +12169,11 @@
       </c>
       <c r="C192" t="str">
         <f>""""&amp;'N4'!C192&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D192" t="str">
         <f>""""&amp;'N4'!D192&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E192" t="str">
         <f>""""&amp;'N4'!E192&amp;""""</f>
@@ -11727,11 +12195,11 @@
       </c>
       <c r="C193" t="str">
         <f>""""&amp;'N4'!C193&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D193" t="str">
         <f>""""&amp;'N4'!D193&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E193" t="str">
         <f>""""&amp;'N4'!E193&amp;""""</f>
@@ -11753,11 +12221,11 @@
       </c>
       <c r="C194" t="str">
         <f>""""&amp;'N4'!C194&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D194" t="str">
         <f>""""&amp;'N4'!D194&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E194" t="str">
         <f>""""&amp;'N4'!E194&amp;""""</f>
@@ -11779,11 +12247,11 @@
       </c>
       <c r="C195" t="str">
         <f>""""&amp;'N4'!C195&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D195" t="str">
         <f>""""&amp;'N4'!D195&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E195" t="str">
         <f>""""&amp;'N4'!E195&amp;""""</f>
@@ -11805,11 +12273,11 @@
       </c>
       <c r="C196" t="str">
         <f>""""&amp;'N4'!C196&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D196" t="str">
         <f>""""&amp;'N4'!D196&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E196" t="str">
         <f>""""&amp;'N4'!E196&amp;""""</f>
@@ -11831,11 +12299,11 @@
       </c>
       <c r="C197" t="str">
         <f>""""&amp;'N4'!C197&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D197" t="str">
         <f>""""&amp;'N4'!D197&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E197" t="str">
         <f>""""&amp;'N4'!E197&amp;""""</f>
@@ -11857,11 +12325,11 @@
       </c>
       <c r="C198" t="str">
         <f>""""&amp;'N4'!C198&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D198" t="str">
         <f>""""&amp;'N4'!D198&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E198" t="str">
         <f>""""&amp;'N4'!E198&amp;""""</f>
@@ -11883,11 +12351,11 @@
       </c>
       <c r="C199" t="str">
         <f>""""&amp;'N4'!C199&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D199" t="str">
         <f>""""&amp;'N4'!D199&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E199" t="str">
         <f>""""&amp;'N4'!E199&amp;""""</f>
@@ -11909,11 +12377,11 @@
       </c>
       <c r="C200" t="str">
         <f>""""&amp;'N4'!C200&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D200" t="str">
         <f>""""&amp;'N4'!D200&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E200" t="str">
         <f>""""&amp;'N4'!E200&amp;""""</f>
@@ -11935,11 +12403,11 @@
       </c>
       <c r="C201" t="str">
         <f>""""&amp;'N4'!C201&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D201" t="str">
         <f>""""&amp;'N4'!D201&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E201" t="str">
         <f>""""&amp;'N4'!E201&amp;""""</f>
@@ -11961,11 +12429,11 @@
       </c>
       <c r="C202" t="str">
         <f>""""&amp;'N4'!C202&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D202" t="str">
         <f>""""&amp;'N4'!D202&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E202" t="str">
         <f>""""&amp;'N4'!E202&amp;""""</f>
@@ -11987,11 +12455,11 @@
       </c>
       <c r="C203" t="str">
         <f>""""&amp;'N4'!C203&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D203" t="str">
         <f>""""&amp;'N4'!D203&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E203" t="str">
         <f>""""&amp;'N4'!E203&amp;""""</f>
@@ -12013,11 +12481,11 @@
       </c>
       <c r="C204" t="str">
         <f>""""&amp;'N4'!C204&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D204" t="str">
         <f>""""&amp;'N4'!D204&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E204" t="str">
         <f>""""&amp;'N4'!E204&amp;""""</f>
@@ -12039,11 +12507,11 @@
       </c>
       <c r="C205" t="str">
         <f>""""&amp;'N4'!C205&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D205" t="str">
         <f>""""&amp;'N4'!D205&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E205" t="str">
         <f>""""&amp;'N4'!E205&amp;""""</f>
@@ -12065,11 +12533,11 @@
       </c>
       <c r="C206" t="str">
         <f>""""&amp;'N4'!C206&amp;""""</f>
-        <v>""</v>
+        <v>"5"</v>
       </c>
       <c r="D206" t="str">
         <f>""""&amp;'N4'!D206&amp;""""</f>
-        <v>""</v>
+        <v>"N4"</v>
       </c>
       <c r="E206" t="str">
         <f>""""&amp;'N4'!E206&amp;""""</f>
